--- a/data/_raw/acmap_covid.xlsx
+++ b/data/_raw/acmap_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilarius\OneDrive - Danmarks Tekniske Universitet\Dokumenter\Antigenic-Mapping-of-NA\data\_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2B5460-336A-4FFD-A07A-3E59507A4AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6DD237-5CA3-4008-A24A-4C1A4D1CD63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="21640" windowHeight="11200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AntigenicMappingTemplate_ATM_" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="635">
   <si>
     <t>Made by;                                                                OLSE &amp; MAOJ, 2024</t>
   </si>
@@ -1572,30 +1572,6 @@
     <t>D614G</t>
   </si>
   <si>
-    <t>B.1.1.7</t>
-  </si>
-  <si>
-    <t>B.1.1.7+E484K</t>
-  </si>
-  <si>
-    <t>P.1.1</t>
-  </si>
-  <si>
-    <t>B.1.351</t>
-  </si>
-  <si>
-    <t>B.1.617.2</t>
-  </si>
-  <si>
-    <t>BA.1</t>
-  </si>
-  <si>
-    <t>BA.2</t>
-  </si>
-  <si>
-    <t>BA.5</t>
-  </si>
-  <si>
     <t>G21_delta conv._B.1.617.2 conv._NA</t>
   </si>
   <si>
@@ -1957,6 +1933,21 @@
   </si>
   <si>
     <t>BA.5 omicron</t>
+  </si>
+  <si>
+    <t>Alpha (B.1.1.7)</t>
+  </si>
+  <si>
+    <t>Alpha (B.1.1.7+E484K)</t>
+  </si>
+  <si>
+    <t>Gamma (P.1.1)</t>
+  </si>
+  <si>
+    <t>Beta (B.1.351)</t>
+  </si>
+  <si>
+    <t>Delta (B.1.617.2)</t>
   </si>
 </sst>
 </file>
@@ -2450,12 +2441,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2467,6 +2452,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2814,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HW264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2836,23 +2827,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:231" s="5" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:231" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:231" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2865,13 +2856,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -3337,13 +3328,13 @@
         <v>5</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -4084,210 +4075,210 @@
       <c r="AF9" s="17"/>
     </row>
     <row r="10" spans="1:231" s="35" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="V10" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="W10" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="X10" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y10" s="35" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z10" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="AA10" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB10" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="AC10" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="AD10" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE10" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF10" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="AG10" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="BW10" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="BX10" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="BY10" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="BZ10" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="CA10" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="CB10" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="O10" s="35" t="s">
+      <c r="CC10" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="P10" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="S10" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="U10" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="V10" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="W10" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="X10" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="Y10" s="35" t="s">
-        <v>623</v>
-      </c>
-      <c r="Z10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="AA10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="AC10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="AD10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="AE10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="AF10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="AG10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="BW10" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="BX10" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="BY10" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="BZ10" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="CA10" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="CB10" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="CC10" s="35" t="s">
-        <v>635</v>
-      </c>
       <c r="CD10" s="35" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="CE10" s="35" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="CF10" s="35" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="CG10" s="35" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="CH10" s="35" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="CI10" s="35" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="CJ10" s="35" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="CK10" s="35" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="CL10" s="35" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="CM10" s="35" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="CN10" s="35" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="CO10" s="35" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="CP10" s="35" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="CQ10" s="35" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="CR10" s="35" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="CS10" s="35" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="CT10" s="35" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="CU10" s="35" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="CV10" s="35" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="CW10" s="35" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="CX10" s="35" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="CY10" s="35" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="CZ10" s="35" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="DA10" s="35" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="DB10" s="35" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="DC10" s="35" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="DD10" s="35" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="DE10" s="35" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="DF10" s="35" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="DG10" s="35" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="DH10" s="35" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="DI10" s="35" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="DJ10" s="35" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:231" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4301,322 +4292,322 @@
         <v>10</v>
       </c>
       <c r="I11" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q11" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="R11" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="S11" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="T11" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="U11" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="V11" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="W11" s="37" t="s">
         <v>523</v>
       </c>
-      <c r="P11" s="37" t="s">
+      <c r="X11" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="Q11" s="37" t="s">
+      <c r="Y11" s="37" t="s">
         <v>525</v>
       </c>
-      <c r="R11" s="37" t="s">
+      <c r="Z11" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="S11" s="37" t="s">
+      <c r="AA11" s="37" t="s">
         <v>527</v>
       </c>
-      <c r="T11" s="37" t="s">
+      <c r="AB11" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="U11" s="37" t="s">
+      <c r="AC11" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="V11" s="37" t="s">
+      <c r="AD11" s="37" t="s">
         <v>530</v>
       </c>
-      <c r="W11" s="37" t="s">
+      <c r="AE11" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="X11" s="37" t="s">
+      <c r="AF11" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="Y11" s="37" t="s">
+      <c r="AG11" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="Z11" s="37" t="s">
+      <c r="AH11" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="AA11" s="37" t="s">
+      <c r="AI11" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="AB11" s="37" t="s">
+      <c r="AJ11" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="AC11" s="37" t="s">
+      <c r="AK11" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="AD11" s="37" t="s">
+      <c r="AL11" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="AE11" s="37" t="s">
+      <c r="AM11" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="AF11" s="37" t="s">
+      <c r="AN11" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="AG11" s="6" t="s">
+      <c r="AO11" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="AH11" s="6" t="s">
+      <c r="AP11" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="AI11" s="6" t="s">
+      <c r="AQ11" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="AJ11" s="6" t="s">
+      <c r="AR11" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="AK11" s="6" t="s">
+      <c r="AS11" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="AL11" s="6" t="s">
+      <c r="AT11" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="AM11" s="6" t="s">
+      <c r="AU11" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="AN11" s="6" t="s">
+      <c r="AV11" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="AO11" s="6" t="s">
+      <c r="AW11" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="AP11" s="6" t="s">
+      <c r="AX11" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="AQ11" s="6" t="s">
+      <c r="AY11" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="AR11" s="6" t="s">
+      <c r="AZ11" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="AS11" s="6" t="s">
+      <c r="BA11" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="AT11" s="6" t="s">
+      <c r="BB11" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="AU11" s="6" t="s">
+      <c r="BC11" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="AV11" s="6" t="s">
+      <c r="BD11" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="AW11" s="6" t="s">
+      <c r="BE11" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="AX11" s="6" t="s">
+      <c r="BF11" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="AY11" s="6" t="s">
+      <c r="BG11" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="AZ11" s="6" t="s">
+      <c r="BH11" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="BA11" s="6" t="s">
+      <c r="BI11" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="BB11" s="6" t="s">
+      <c r="BJ11" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="BC11" s="6" t="s">
+      <c r="BK11" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="BD11" s="6" t="s">
+      <c r="BL11" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="BE11" s="6" t="s">
+      <c r="BM11" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="BF11" s="6" t="s">
+      <c r="BN11" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="BG11" s="6" t="s">
+      <c r="BO11" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="BH11" s="6" t="s">
+      <c r="BP11" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="BI11" s="6" t="s">
+      <c r="BQ11" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="BJ11" s="6" t="s">
+      <c r="BR11" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="BK11" s="6" t="s">
+      <c r="BS11" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="BL11" s="6" t="s">
+      <c r="BT11" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="BM11" s="6" t="s">
+      <c r="BU11" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="BN11" s="6" t="s">
+      <c r="BV11" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="BO11" s="6" t="s">
+      <c r="BW11" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="BP11" s="6" t="s">
+      <c r="BX11" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="BQ11" s="6" t="s">
+      <c r="BY11" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="BR11" s="6" t="s">
+      <c r="BZ11" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="BS11" s="6" t="s">
+      <c r="CA11" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="BT11" s="6" t="s">
+      <c r="CB11" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="BU11" s="6" t="s">
+      <c r="CC11" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="BV11" s="6" t="s">
+      <c r="CD11" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="BW11" s="6" t="s">
+      <c r="CE11" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="BX11" s="6" t="s">
+      <c r="CF11" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="BY11" s="6" t="s">
+      <c r="CG11" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="BZ11" s="6" t="s">
+      <c r="CH11" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="CA11" s="6" t="s">
+      <c r="CI11" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="CB11" s="6" t="s">
+      <c r="CJ11" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="CC11" s="6" t="s">
+      <c r="CK11" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="CD11" s="6" t="s">
+      <c r="CL11" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="CE11" s="6" t="s">
+      <c r="CM11" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="CF11" s="6" t="s">
+      <c r="CN11" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="CG11" s="6" t="s">
+      <c r="CO11" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="CH11" s="6" t="s">
+      <c r="CP11" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="CI11" s="6" t="s">
+      <c r="CQ11" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="CJ11" s="6" t="s">
+      <c r="CR11" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="CK11" s="6" t="s">
+      <c r="CS11" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="CL11" s="6" t="s">
+      <c r="CT11" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="CM11" s="6" t="s">
+      <c r="CU11" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="CN11" s="6" t="s">
+      <c r="CV11" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="CO11" s="6" t="s">
+      <c r="CW11" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="CP11" s="6" t="s">
+      <c r="CX11" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="CQ11" s="6" t="s">
+      <c r="CY11" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="CR11" s="6" t="s">
+      <c r="CZ11" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="CS11" s="6" t="s">
+      <c r="DA11" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="CT11" s="6" t="s">
+      <c r="DB11" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="CU11" s="6" t="s">
+      <c r="DC11" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="CV11" s="6" t="s">
+      <c r="DD11" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="CW11" s="6" t="s">
+      <c r="DE11" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="CX11" s="6" t="s">
+      <c r="DF11" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="CY11" s="6" t="s">
+      <c r="DG11" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="CZ11" s="6" t="s">
+      <c r="DH11" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="DA11" s="6" t="s">
+      <c r="DI11" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="DB11" s="6" t="s">
+      <c r="DJ11" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="DC11" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="DD11" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="DE11" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="DF11" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="DG11" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="DH11" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="DI11" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="DJ11" s="6" t="s">
-        <v>622</v>
       </c>
       <c r="DK11" s="45"/>
       <c r="DL11" s="45"/>
@@ -4984,10 +4975,10 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="35" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>508</v>
@@ -5433,13 +5424,13 @@
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="35" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>509</v>
+        <v>630</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>80</v>
@@ -5882,13 +5873,13 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="35" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>510</v>
+        <v>631</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>139</v>
@@ -6331,13 +6322,13 @@
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="35" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>511</v>
+        <v>632</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>197</v>
@@ -6780,13 +6771,13 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>626</v>
+        <v>618</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>618</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>512</v>
+        <v>633</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>261</v>
@@ -7229,13 +7220,13 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>513</v>
+        <v>634</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>320</v>
@@ -7678,13 +7669,13 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>21</v>
@@ -8127,13 +8118,13 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>515</v>
+        <v>626</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>405</v>
@@ -8576,13 +8567,13 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>516</v>
+        <v>629</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>21</v>
@@ -54609,6 +54600,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008E38A6EF0D87AA46993DD52020FE3E27" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="dfe1cc72eea7af3507f75b45ca8c569c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a042ee54-f02a-415e-9595-341646dc5167" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ecb1440112991bebd2e886ca4acac8bd" ns2:_="">
     <xsd:import namespace="a042ee54-f02a-415e-9595-341646dc5167"/>
@@ -54752,15 +54752,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -54768,6 +54759,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B7222CD-4E52-4DCB-A6D9-A689C06F8147}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD64B337-4DCE-4E01-973F-6CCC399E27D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54781,14 +54780,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B7222CD-4E52-4DCB-A6D9-A689C06F8147}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/_raw/acmap_covid.xlsx
+++ b/data/_raw/acmap_covid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilarius\OneDrive - Danmarks Tekniske Universitet\Dokumenter\Antigenic-Mapping-of-NA\data\_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6DD237-5CA3-4008-A24A-4C1A4D1CD63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A33AB9-4546-4C02-A894-B8C1AECB8B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="21640" windowHeight="11200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AntigenicMappingTemplate_ATM_" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="633">
   <si>
     <t>Made by;                                                                OLSE &amp; MAOJ, 2024</t>
   </si>
@@ -54,6 +54,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">File path: </t>
@@ -63,6 +64,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(default is desktop)</t>
@@ -1924,12 +1926,6 @@
   </si>
   <si>
     <t>BA.2 omicron</t>
-  </si>
-  <si>
-    <t>BA. 1 omicron</t>
-  </si>
-  <si>
-    <t>BA. 2 omicron</t>
   </si>
   <si>
     <t>BA.5 omicron</t>
@@ -1954,7 +1950,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2005,6 +2001,7 @@
       <sz val="9"/>
       <color rgb="FFDAE9F8"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2019,12 +2016,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2412,16 +2404,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2441,16 +2433,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2805,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HW264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="38" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="DC16" sqref="DC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2823,7 +2815,11 @@
     <col min="10" max="17" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="24" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="32" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.08984375" style="1"/>
+    <col min="33" max="101" width="9.08984375" style="1"/>
+    <col min="102" max="102" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="106" width="9.08984375" style="1"/>
+    <col min="107" max="107" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:231" s="5" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
@@ -4161,94 +4157,94 @@
         <v>618</v>
       </c>
       <c r="BW10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="BX10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="BY10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="BZ10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CA10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CB10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CC10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CD10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CE10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CF10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CG10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CH10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CI10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CJ10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CK10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CL10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CM10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CN10" s="35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="CO10" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="CP10" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="CQ10" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="CR10" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="CS10" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="CT10" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="CU10" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="CV10" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="CW10" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="CX10" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="CY10" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="CZ10" s="35" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="DA10" s="35" t="s">
         <v>616</v>
@@ -5430,7 +5426,7 @@
         <v>615</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>80</v>
@@ -5879,7 +5875,7 @@
         <v>615</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>139</v>
@@ -6328,7 +6324,7 @@
         <v>617</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>197</v>
@@ -6777,7 +6773,7 @@
         <v>618</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>261</v>
@@ -7226,7 +7222,7 @@
         <v>619</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>320</v>
@@ -8570,10 +8566,10 @@
         <v>620</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>21</v>
@@ -54572,7 +54568,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations xWindow="1215" yWindow="793" count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Virus type" prompt="Write here the type (or family) of virus (e.g. influenza A)._x000a_Can NOT be left empty. " sqref="F3" xr:uid="{5FB6E821-041A-450E-AB22-E8B9F1E3DE60}"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Version control of template" prompt="In case the template is updated, please change the date here. " sqref="C4" xr:uid="{DE7B4072-35BB-4EA0-9620-D7950894DA02}">
@@ -54600,12 +54596,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54753,15 +54746,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B7222CD-4E52-4DCB-A6D9-A689C06F8147}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19DF177C-8C67-469D-A144-41DE0BEB0C8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="a042ee54-f02a-415e-9595-341646dc5167"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -54785,17 +54789,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19DF177C-8C67-469D-A144-41DE0BEB0C8E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B7222CD-4E52-4DCB-A6D9-A689C06F8147}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="a042ee54-f02a-415e-9595-341646dc5167"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/_raw/acmap_covid.xlsx
+++ b/data/_raw/acmap_covid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilarius\OneDrive - Danmarks Tekniske Universitet\Dokumenter\Antigenic-Mapping-of-NA\data\_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A33AB9-4546-4C02-A894-B8C1AECB8B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D18A5AC-DF24-44D1-A2F8-E0C9EF07FAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1750" yWindow="2340" windowWidth="21640" windowHeight="11200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AntigenicMappingTemplate_ATM_" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="632">
   <si>
     <t>Made by;                                                                OLSE &amp; MAOJ, 2024</t>
   </si>
@@ -48,29 +48,6 @@
     <t>Species</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">File path: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(default is desktop)</t>
-    </r>
-  </si>
-  <si>
     <t>Serum Comments:</t>
   </si>
   <si>
@@ -95,9 +72,6 @@
     <t>Antigen name:</t>
   </si>
   <si>
-    <t>Serum vaccine homolog:</t>
-  </si>
-  <si>
     <t>Serum exposure antigen:</t>
   </si>
   <si>
@@ -1944,6 +1918,9 @@
   </si>
   <si>
     <t>Delta (B.1.617.2)</t>
+  </si>
+  <si>
+    <t>Serum exposure homolog:</t>
   </si>
 </sst>
 </file>
@@ -2312,7 +2289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2398,9 +2375,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2797,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:HW264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="38" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="DC16" sqref="DC16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2823,23 +2797,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:231" s="5" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:231" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:231" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2852,13 +2826,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -3086,8 +3060,8 @@
     </row>
     <row r="4" spans="1:231" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
-      <c r="C4" s="34">
-        <v>45371</v>
+      <c r="C4" s="33">
+        <v>45398</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="24"/>
@@ -3316,7 +3290,7 @@
       <c r="HV4" s="4"/>
       <c r="HW4" s="4"/>
     </row>
-    <row r="5" spans="1:231" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:231" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
       <c r="D5" s="4"/>
@@ -3324,13 +3298,13 @@
         <v>5</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3558,9 +3532,7 @@
     </row>
     <row r="6" spans="1:231" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
-      <c r="C6" s="32" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" s="12"/>
       <c r="D6" s="4"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
@@ -3792,7 +3764,7 @@
     </row>
     <row r="7" spans="1:231" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
-      <c r="C7" s="33"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4"/>
@@ -4022,7 +3994,7 @@
       <c r="HV7" s="10"/>
       <c r="HW7" s="10"/>
     </row>
-    <row r="8" spans="1:231" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:231" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4031,7 +4003,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:231" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -4041,9 +4013,9 @@
       <c r="D9" s="12"/>
       <c r="E9" s="4"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -4070,211 +4042,211 @@
       <c r="AE9" s="17"/>
       <c r="AF9" s="17"/>
     </row>
-    <row r="10" spans="1:231" s="35" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>619</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>619</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>619</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>619</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>619</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>619</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>619</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="S10" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="U10" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="V10" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="W10" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="X10" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="Y10" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="Z10" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="AA10" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="AB10" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="AC10" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="AD10" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="AE10" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="AF10" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="AG10" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="BW10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="BX10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="BY10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="BZ10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CA10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CB10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CC10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CD10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CE10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CF10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CG10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CH10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CI10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CJ10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CK10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CL10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CM10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CN10" s="35" t="s">
-        <v>625</v>
-      </c>
-      <c r="CO10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="CP10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="CQ10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="CR10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="CS10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="CT10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="CU10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="CV10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="CW10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="CX10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="CY10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="CZ10" s="35" t="s">
-        <v>626</v>
-      </c>
-      <c r="DA10" s="35" t="s">
+    <row r="10" spans="1:231" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="U10" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y10" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="Z10" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="DB10" s="35" t="s">
+      <c r="AA10" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="DC10" s="35" t="s">
+      <c r="AB10" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="DD10" s="35" t="s">
+      <c r="AC10" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="DE10" s="35" t="s">
+      <c r="AD10" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="DF10" s="35" t="s">
+      <c r="AE10" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="DG10" s="35" t="s">
+      <c r="AF10" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="DH10" s="35" t="s">
+      <c r="AG10" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="DI10" s="35" t="s">
-        <v>616</v>
-      </c>
-      <c r="DJ10" s="35" t="s">
-        <v>616</v>
+      <c r="BW10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="BX10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="BY10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="BZ10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CA10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CB10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CC10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CD10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CE10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CF10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CG10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CH10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CI10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CJ10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CK10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CL10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CM10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CN10" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="CO10" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="CP10" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="CQ10" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="CR10" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="CS10" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="CT10" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="CU10" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="CV10" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="CW10" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="CX10" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="CY10" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="CZ10" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="DA10" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="DB10" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="DC10" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="DD10" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="DE10" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="DF10" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="DG10" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="DH10" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="DI10" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="DJ10" s="34" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:231" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4283,415 +4255,415 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="36"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="K11" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="L11" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="M11" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="N11" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="O11" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="P11" s="36" t="s">
         <v>514</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="Q11" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="P11" s="37" t="s">
+      <c r="R11" s="36" t="s">
         <v>516</v>
       </c>
-      <c r="Q11" s="37" t="s">
+      <c r="S11" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="R11" s="37" t="s">
+      <c r="T11" s="36" t="s">
         <v>518</v>
       </c>
-      <c r="S11" s="37" t="s">
+      <c r="U11" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="T11" s="37" t="s">
+      <c r="V11" s="36" t="s">
         <v>520</v>
       </c>
-      <c r="U11" s="37" t="s">
+      <c r="W11" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="V11" s="37" t="s">
+      <c r="X11" s="36" t="s">
         <v>522</v>
       </c>
-      <c r="W11" s="37" t="s">
+      <c r="Y11" s="36" t="s">
         <v>523</v>
       </c>
-      <c r="X11" s="37" t="s">
+      <c r="Z11" s="36" t="s">
         <v>524</v>
       </c>
-      <c r="Y11" s="37" t="s">
+      <c r="AA11" s="36" t="s">
         <v>525</v>
       </c>
-      <c r="Z11" s="37" t="s">
+      <c r="AB11" s="36" t="s">
         <v>526</v>
       </c>
-      <c r="AA11" s="37" t="s">
+      <c r="AC11" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="AB11" s="37" t="s">
+      <c r="AD11" s="36" t="s">
         <v>528</v>
       </c>
-      <c r="AC11" s="37" t="s">
+      <c r="AE11" s="36" t="s">
         <v>529</v>
       </c>
-      <c r="AD11" s="37" t="s">
+      <c r="AF11" s="36" t="s">
         <v>530</v>
       </c>
-      <c r="AE11" s="37" t="s">
+      <c r="AG11" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="AF11" s="37" t="s">
+      <c r="AH11" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="AG11" s="6" t="s">
+      <c r="AI11" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="AH11" s="6" t="s">
+      <c r="AJ11" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="AI11" s="6" t="s">
+      <c r="AK11" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="AJ11" s="6" t="s">
+      <c r="AL11" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="AK11" s="6" t="s">
+      <c r="AM11" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="AL11" s="6" t="s">
+      <c r="AN11" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="AM11" s="6" t="s">
+      <c r="AO11" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="AN11" s="6" t="s">
+      <c r="AP11" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="AO11" s="6" t="s">
+      <c r="AQ11" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="AP11" s="6" t="s">
+      <c r="AR11" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="AQ11" s="6" t="s">
+      <c r="AS11" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="AR11" s="6" t="s">
+      <c r="AT11" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="AS11" s="6" t="s">
+      <c r="AU11" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="AT11" s="6" t="s">
+      <c r="AV11" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="AU11" s="6" t="s">
+      <c r="AW11" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="AV11" s="6" t="s">
+      <c r="AX11" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="AW11" s="6" t="s">
+      <c r="AY11" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="AX11" s="6" t="s">
+      <c r="AZ11" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="AY11" s="6" t="s">
+      <c r="BA11" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="AZ11" s="6" t="s">
+      <c r="BB11" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="BA11" s="6" t="s">
+      <c r="BC11" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="BB11" s="6" t="s">
+      <c r="BD11" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="BC11" s="6" t="s">
+      <c r="BE11" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="BD11" s="6" t="s">
+      <c r="BF11" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="BE11" s="6" t="s">
+      <c r="BG11" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="BF11" s="6" t="s">
+      <c r="BH11" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="BG11" s="6" t="s">
+      <c r="BI11" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="BH11" s="6" t="s">
+      <c r="BJ11" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="BI11" s="6" t="s">
+      <c r="BK11" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="BJ11" s="6" t="s">
+      <c r="BL11" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="BK11" s="6" t="s">
+      <c r="BM11" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="BL11" s="6" t="s">
+      <c r="BN11" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="BM11" s="6" t="s">
+      <c r="BO11" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="BN11" s="6" t="s">
+      <c r="BP11" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="BO11" s="6" t="s">
+      <c r="BQ11" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="BP11" s="6" t="s">
+      <c r="BR11" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="BQ11" s="6" t="s">
+      <c r="BS11" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="BR11" s="6" t="s">
+      <c r="BT11" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="BS11" s="6" t="s">
+      <c r="BU11" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="BT11" s="6" t="s">
+      <c r="BV11" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="BU11" s="6" t="s">
+      <c r="BW11" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="BV11" s="6" t="s">
+      <c r="BX11" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="BW11" s="6" t="s">
+      <c r="BY11" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="BX11" s="6" t="s">
+      <c r="BZ11" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="BY11" s="6" t="s">
+      <c r="CA11" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="BZ11" s="6" t="s">
+      <c r="CB11" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="CA11" s="6" t="s">
+      <c r="CC11" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="CB11" s="6" t="s">
+      <c r="CD11" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="CC11" s="6" t="s">
+      <c r="CE11" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="CD11" s="6" t="s">
+      <c r="CF11" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="CE11" s="6" t="s">
+      <c r="CG11" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="CF11" s="6" t="s">
+      <c r="CH11" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="CG11" s="6" t="s">
+      <c r="CI11" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="CH11" s="6" t="s">
+      <c r="CJ11" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="CI11" s="6" t="s">
+      <c r="CK11" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="CJ11" s="6" t="s">
+      <c r="CL11" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="CK11" s="6" t="s">
+      <c r="CM11" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="CL11" s="6" t="s">
+      <c r="CN11" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="CM11" s="6" t="s">
+      <c r="CO11" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="CN11" s="6" t="s">
+      <c r="CP11" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="CO11" s="6" t="s">
+      <c r="CQ11" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="CP11" s="6" t="s">
+      <c r="CR11" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="CQ11" s="6" t="s">
+      <c r="CS11" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="CR11" s="6" t="s">
+      <c r="CT11" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="CS11" s="6" t="s">
+      <c r="CU11" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="CT11" s="6" t="s">
+      <c r="CV11" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="CU11" s="6" t="s">
+      <c r="CW11" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="CV11" s="6" t="s">
+      <c r="CX11" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="CW11" s="6" t="s">
+      <c r="CY11" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="CX11" s="6" t="s">
+      <c r="CZ11" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="CY11" s="6" t="s">
+      <c r="DA11" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="CZ11" s="6" t="s">
+      <c r="DB11" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="DA11" s="6" t="s">
+      <c r="DC11" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="DB11" s="6" t="s">
+      <c r="DD11" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="DC11" s="6" t="s">
+      <c r="DE11" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="DD11" s="6" t="s">
+      <c r="DF11" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="DE11" s="6" t="s">
+      <c r="DG11" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="DF11" s="6" t="s">
+      <c r="DH11" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="DG11" s="6" t="s">
+      <c r="DI11" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="DH11" s="6" t="s">
+      <c r="DJ11" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="DI11" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="DJ11" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="DK11" s="45"/>
-      <c r="DL11" s="45"/>
-      <c r="DM11" s="45"/>
-      <c r="DN11" s="45"/>
-      <c r="DO11" s="45"/>
-      <c r="DP11" s="45"/>
-      <c r="DQ11" s="45"/>
-      <c r="DR11" s="45"/>
-      <c r="DS11" s="45"/>
-      <c r="DT11" s="45"/>
-      <c r="DU11" s="45"/>
-      <c r="DV11" s="45"/>
-      <c r="DW11" s="45"/>
-      <c r="DX11" s="45"/>
-      <c r="DY11" s="45"/>
-      <c r="DZ11" s="45"/>
-      <c r="EA11" s="45"/>
-      <c r="EB11" s="45"/>
-      <c r="EC11" s="45"/>
-      <c r="ED11" s="45"/>
-      <c r="EE11" s="45"/>
-      <c r="EF11" s="45"/>
-      <c r="EG11" s="45"/>
-      <c r="EH11" s="45"/>
-      <c r="EI11" s="45"/>
-      <c r="EJ11" s="45"/>
-      <c r="EK11" s="45"/>
-      <c r="EL11" s="45"/>
-      <c r="EM11" s="45"/>
-      <c r="EN11" s="45"/>
-      <c r="EO11" s="45"/>
-      <c r="EP11" s="45"/>
-      <c r="EQ11" s="45"/>
-      <c r="ER11" s="45"/>
-      <c r="ES11" s="45"/>
-      <c r="ET11" s="45"/>
-      <c r="EU11" s="45"/>
-      <c r="EV11" s="45"/>
-      <c r="EW11" s="45"/>
-      <c r="EX11" s="45"/>
-      <c r="EY11" s="45"/>
-      <c r="EZ11" s="45"/>
-      <c r="FA11" s="45"/>
-      <c r="FB11" s="45"/>
-      <c r="FC11" s="45"/>
-      <c r="FD11" s="45"/>
-      <c r="FE11" s="45"/>
-      <c r="FF11" s="45"/>
-      <c r="FG11" s="45"/>
-      <c r="FH11" s="45"/>
-      <c r="FI11" s="45"/>
-      <c r="FJ11" s="45"/>
-      <c r="FK11" s="45"/>
-      <c r="FL11" s="45"/>
-      <c r="FM11" s="45"/>
-      <c r="FN11" s="45"/>
-      <c r="FO11" s="45"/>
-      <c r="FP11" s="45"/>
-      <c r="FQ11" s="45"/>
-      <c r="FR11" s="45"/>
-      <c r="FS11" s="45"/>
-      <c r="FT11" s="45"/>
-      <c r="FU11" s="45"/>
-      <c r="FV11" s="45"/>
-      <c r="FW11" s="45"/>
-      <c r="FX11" s="45"/>
-      <c r="FY11" s="45"/>
-      <c r="FZ11" s="45"/>
-      <c r="GA11" s="45"/>
-      <c r="GB11" s="45"/>
-      <c r="GC11" s="45"/>
-      <c r="GD11" s="45"/>
-      <c r="GE11" s="45"/>
-      <c r="GF11" s="45"/>
-      <c r="GG11" s="45"/>
-      <c r="GH11" s="45"/>
-      <c r="GI11" s="45"/>
-      <c r="GJ11" s="45"/>
-      <c r="GK11" s="45"/>
-      <c r="GL11" s="45"/>
-      <c r="GM11" s="45"/>
-      <c r="GN11" s="45"/>
-      <c r="GO11" s="45"/>
-      <c r="GP11" s="45"/>
-      <c r="GQ11" s="45"/>
-      <c r="GR11" s="45"/>
-      <c r="GS11" s="45"/>
+      <c r="DK11" s="44"/>
+      <c r="DL11" s="44"/>
+      <c r="DM11" s="44"/>
+      <c r="DN11" s="44"/>
+      <c r="DO11" s="44"/>
+      <c r="DP11" s="44"/>
+      <c r="DQ11" s="44"/>
+      <c r="DR11" s="44"/>
+      <c r="DS11" s="44"/>
+      <c r="DT11" s="44"/>
+      <c r="DU11" s="44"/>
+      <c r="DV11" s="44"/>
+      <c r="DW11" s="44"/>
+      <c r="DX11" s="44"/>
+      <c r="DY11" s="44"/>
+      <c r="DZ11" s="44"/>
+      <c r="EA11" s="44"/>
+      <c r="EB11" s="44"/>
+      <c r="EC11" s="44"/>
+      <c r="ED11" s="44"/>
+      <c r="EE11" s="44"/>
+      <c r="EF11" s="44"/>
+      <c r="EG11" s="44"/>
+      <c r="EH11" s="44"/>
+      <c r="EI11" s="44"/>
+      <c r="EJ11" s="44"/>
+      <c r="EK11" s="44"/>
+      <c r="EL11" s="44"/>
+      <c r="EM11" s="44"/>
+      <c r="EN11" s="44"/>
+      <c r="EO11" s="44"/>
+      <c r="EP11" s="44"/>
+      <c r="EQ11" s="44"/>
+      <c r="ER11" s="44"/>
+      <c r="ES11" s="44"/>
+      <c r="ET11" s="44"/>
+      <c r="EU11" s="44"/>
+      <c r="EV11" s="44"/>
+      <c r="EW11" s="44"/>
+      <c r="EX11" s="44"/>
+      <c r="EY11" s="44"/>
+      <c r="EZ11" s="44"/>
+      <c r="FA11" s="44"/>
+      <c r="FB11" s="44"/>
+      <c r="FC11" s="44"/>
+      <c r="FD11" s="44"/>
+      <c r="FE11" s="44"/>
+      <c r="FF11" s="44"/>
+      <c r="FG11" s="44"/>
+      <c r="FH11" s="44"/>
+      <c r="FI11" s="44"/>
+      <c r="FJ11" s="44"/>
+      <c r="FK11" s="44"/>
+      <c r="FL11" s="44"/>
+      <c r="FM11" s="44"/>
+      <c r="FN11" s="44"/>
+      <c r="FO11" s="44"/>
+      <c r="FP11" s="44"/>
+      <c r="FQ11" s="44"/>
+      <c r="FR11" s="44"/>
+      <c r="FS11" s="44"/>
+      <c r="FT11" s="44"/>
+      <c r="FU11" s="44"/>
+      <c r="FV11" s="44"/>
+      <c r="FW11" s="44"/>
+      <c r="FX11" s="44"/>
+      <c r="FY11" s="44"/>
+      <c r="FZ11" s="44"/>
+      <c r="GA11" s="44"/>
+      <c r="GB11" s="44"/>
+      <c r="GC11" s="44"/>
+      <c r="GD11" s="44"/>
+      <c r="GE11" s="44"/>
+      <c r="GF11" s="44"/>
+      <c r="GG11" s="44"/>
+      <c r="GH11" s="44"/>
+      <c r="GI11" s="44"/>
+      <c r="GJ11" s="44"/>
+      <c r="GK11" s="44"/>
+      <c r="GL11" s="44"/>
+      <c r="GM11" s="44"/>
+      <c r="GN11" s="44"/>
+      <c r="GO11" s="44"/>
+      <c r="GP11" s="44"/>
+      <c r="GQ11" s="44"/>
+      <c r="GR11" s="44"/>
+      <c r="GS11" s="44"/>
       <c r="GT11" s="6"/>
       <c r="GU11" s="6"/>
       <c r="GV11" s="6"/>
@@ -4725,22 +4697,22 @@
     <row r="12" spans="1:231" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="41" t="s">
+        <v>631</v>
+      </c>
+      <c r="H12" s="38" t="s">
         <v>14</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>15</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -4970,161 +4942,161 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="35" t="s">
-        <v>616</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>616</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>508</v>
+      <c r="F13" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>506</v>
       </c>
       <c r="I13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="L13" s="13">
         <v>114.00044835937101</v>
       </c>
       <c r="M13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="13" t="s">
+      <c r="Q13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="R13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="S13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="T13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="U13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="V13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="W13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="X13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="W13" s="13" t="s">
+      <c r="Y13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="X13" s="13" t="s">
+      <c r="Z13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Y13" s="13" t="s">
+      <c r="AA13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC13" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="Z13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC13" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="AD13" s="13">
         <v>139.44231199044501</v>
       </c>
       <c r="AE13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AF13" s="13" t="s">
+      <c r="AI13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AG13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH13" s="13" t="s">
+      <c r="AJ13" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="AI13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ13" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="AK13" s="13">
         <v>1517.49564620717</v>
       </c>
       <c r="AL13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AM13" s="13" t="s">
+      <c r="AO13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AN13" s="13" t="s">
+      <c r="AP13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AO13" s="13" t="s">
+      <c r="AQ13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AP13" s="6" t="s">
+      <c r="AR13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AQ13" s="6" t="s">
+      <c r="AS13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AR13" s="6" t="s">
+      <c r="AT13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AS13" s="6" t="s">
+      <c r="AU13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AT13" s="6" t="s">
+      <c r="AV13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AU13" s="6" t="s">
+      <c r="AW13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AV13" s="6" t="s">
+      <c r="AX13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AW13" s="6" t="s">
+      <c r="AY13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AX13" s="6" t="s">
+      <c r="AZ13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AY13" s="6" t="s">
+      <c r="BA13" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="AZ13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA13" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="BB13" s="6">
         <v>1185.9648523251001</v>
       </c>
       <c r="BC13" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BD13" s="6">
         <v>2106.1973798572199</v>
       </c>
       <c r="BE13" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BF13" s="6">
         <v>2402.9018947210102</v>
@@ -5133,10 +5105,10 @@
         <v>1002.55867761406</v>
       </c>
       <c r="BH13" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BI13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BJ13" s="6">
         <v>3582.4929085234899</v>
@@ -5148,154 +5120,154 @@
         <v>1158.6634961960499</v>
       </c>
       <c r="BM13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BN13" s="6">
         <v>1494.61793951039</v>
       </c>
       <c r="BO13" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BP13" s="6">
         <v>1988.1958424419799</v>
       </c>
       <c r="BQ13" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BR13" s="6">
         <v>1592.04435873848</v>
       </c>
       <c r="BS13" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BT13" s="6">
         <v>2566.8905932438311</v>
       </c>
       <c r="BU13" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BV13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BW13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BX13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BY13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BZ13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CA13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CB13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CC13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CD13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CE13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CF13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CG13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CH13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CI13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CJ13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CK13" s="6">
         <v>17.422341458852699</v>
       </c>
       <c r="CL13" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CM13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="CN13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CO13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CP13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="CQ13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CR13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CS13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CT13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CU13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CV13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CW13" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="CN13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CO13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CP13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="CQ13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CR13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CS13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CT13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CU13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CV13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CW13" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="CX13" s="6">
         <v>787.87660633242001</v>
       </c>
       <c r="CY13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="CZ13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="DA13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="CZ13" s="6" t="s">
+      <c r="DB13" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="DA13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="DB13" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="DC13" s="6">
         <v>463.482465193454</v>
       </c>
       <c r="DD13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="DE13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="DF13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="DE13" s="6" t="s">
+      <c r="DG13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="DF13" s="6" t="s">
+      <c r="DH13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="DG13" s="6" t="s">
+      <c r="DI13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="DH13" s="6" t="s">
+      <c r="DJ13" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="DI13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="DJ13" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="DK13" s="6"/>
       <c r="DL13" s="6"/>
@@ -5419,161 +5391,161 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>615</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>628</v>
+      <c r="F14" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>626</v>
       </c>
       <c r="I14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="L14" s="13">
         <v>152.94045964163001</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="R14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="S14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="T14" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="U14" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="V14" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="U14" s="13" t="s">
+      <c r="W14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="V14" s="13" t="s">
+      <c r="X14" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="W14" s="13" t="s">
+      <c r="Y14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="X14" s="13" t="s">
+      <c r="Z14" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Y14" s="13" t="s">
+      <c r="AA14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC14" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC14" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="AD14" s="13">
         <v>641.66624699928798</v>
       </c>
       <c r="AE14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH14" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AF14" s="13" t="s">
+      <c r="AI14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AG14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH14" s="13" t="s">
+      <c r="AJ14" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="AI14" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ14" s="13" t="s">
-        <v>100</v>
       </c>
       <c r="AK14" s="13">
         <v>469.62005732795888</v>
       </c>
       <c r="AL14" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN14" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AM14" s="13" t="s">
+      <c r="AO14" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AN14" s="13" t="s">
+      <c r="AP14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AO14" s="13" t="s">
+      <c r="AQ14" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AP14" s="6" t="s">
+      <c r="AR14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="AQ14" s="6" t="s">
+      <c r="AS14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AR14" s="6" t="s">
+      <c r="AT14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AS14" s="6" t="s">
+      <c r="AU14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="AT14" s="6" t="s">
+      <c r="AV14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="AU14" s="6" t="s">
+      <c r="AW14" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AV14" s="6" t="s">
+      <c r="AX14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AW14" s="6" t="s">
+      <c r="AY14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="AX14" s="6" t="s">
+      <c r="AZ14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="AY14" s="6" t="s">
+      <c r="BA14" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="AZ14" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA14" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="BB14" s="6">
         <v>1863.7489554473</v>
       </c>
       <c r="BC14" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="BD14" s="6">
         <v>1823.35040293012</v>
       </c>
       <c r="BE14" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BF14" s="6">
         <v>1642.1761142569101</v>
@@ -5582,10 +5554,10 @@
         <v>1446.1529030893901</v>
       </c>
       <c r="BH14" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BI14" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BJ14" s="6">
         <v>3848.727775716749</v>
@@ -5597,154 +5569,154 @@
         <v>922.62180159688501</v>
       </c>
       <c r="BM14" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BN14" s="6">
         <v>1722.9795259530699</v>
       </c>
       <c r="BO14" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BP14" s="6">
         <v>1019.66485020635</v>
       </c>
       <c r="BQ14" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BR14" s="6">
         <v>1737.96302671371</v>
       </c>
       <c r="BS14" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BT14" s="6">
         <v>601.49394412830804</v>
       </c>
       <c r="BU14" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BV14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BW14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BX14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BY14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BZ14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CA14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CB14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CC14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CD14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CE14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CF14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CG14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CH14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CI14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CJ14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CK14" s="6">
         <v>35.907965415365801</v>
       </c>
       <c r="CL14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CM14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CN14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CO14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CP14" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CQ14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CR14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CS14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CT14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CU14" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CV14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CW14" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CX14" s="6">
         <v>448.04489493718899</v>
       </c>
       <c r="CY14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CZ14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DA14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="DB14" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="CZ14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="DA14" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="DB14" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="DC14" s="6">
         <v>357.42320958810001</v>
       </c>
       <c r="DD14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="DE14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="DF14" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="DE14" s="6" t="s">
+      <c r="DG14" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="DF14" s="6" t="s">
+      <c r="DH14" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="DG14" s="6" t="s">
+      <c r="DI14" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="DH14" s="6" t="s">
+      <c r="DJ14" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="DI14" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="DJ14" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="DK14" s="6"/>
       <c r="DL14" s="6"/>
@@ -5868,161 +5840,161 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>615</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>629</v>
+      <c r="F15" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>627</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>141</v>
       </c>
       <c r="L15" s="13">
         <v>117.495805378797</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O15" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q15" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="R15" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="S15" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="T15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="V15" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="T15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="13" t="s">
+      <c r="W15" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="V15" s="13" t="s">
+      <c r="X15" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="W15" s="13" t="s">
+      <c r="Y15" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="X15" s="13" t="s">
+      <c r="Z15" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="Y15" s="13" t="s">
+      <c r="AA15" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Z15" s="13" t="s">
+      <c r="AB15" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="AA15" s="13" t="s">
+      <c r="AC15" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="AB15" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC15" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="AD15" s="13">
         <v>597.74224529636399</v>
       </c>
       <c r="AE15" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH15" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="AF15" s="13" t="s">
+      <c r="AI15" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="AG15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH15" s="13" t="s">
+      <c r="AJ15" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="AI15" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ15" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="AK15" s="13">
         <v>247.57925983777801</v>
       </c>
       <c r="AL15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM15" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN15" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="AM15" s="13" t="s">
+      <c r="AO15" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="AN15" s="13" t="s">
+      <c r="AP15" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="AO15" s="13" t="s">
+      <c r="AQ15" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="AP15" s="6" t="s">
+      <c r="AR15" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="AQ15" s="6" t="s">
+      <c r="AS15" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="AR15" s="6" t="s">
+      <c r="AT15" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="AS15" s="6" t="s">
+      <c r="AU15" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="AT15" s="6" t="s">
+      <c r="AV15" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="AU15" s="6" t="s">
+      <c r="AW15" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="AV15" s="6" t="s">
+      <c r="AX15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="AW15" s="6" t="s">
+      <c r="AY15" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="AX15" s="6" t="s">
+      <c r="AZ15" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="AY15" s="6" t="s">
+      <c r="BA15" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="AZ15" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA15" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="BB15" s="6">
         <v>537.22507942091704</v>
       </c>
       <c r="BC15" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BD15" s="6">
         <v>423.70884753507312</v>
       </c>
       <c r="BE15" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BF15" s="6">
         <v>579.64052844437299</v>
@@ -6031,10 +6003,10 @@
         <v>402.21041126436</v>
       </c>
       <c r="BH15" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="BI15" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BJ15" s="6">
         <v>4433.1850616111096</v>
@@ -6046,154 +6018,154 @@
         <v>1269.2265939761401</v>
       </c>
       <c r="BM15" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BN15" s="6">
         <v>1272.4409847515701</v>
       </c>
       <c r="BO15" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BP15" s="6">
         <v>795.60725826583484</v>
       </c>
       <c r="BQ15" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BR15" s="6">
         <v>753.91178198808996</v>
       </c>
       <c r="BS15" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="BT15" s="6">
         <v>472.85318786832801</v>
       </c>
       <c r="BU15" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="BV15" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BW15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BX15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BY15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BZ15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CA15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CB15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CC15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CD15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CE15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CF15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CG15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CH15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CI15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CJ15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CK15" s="6">
         <v>127.79773216382399</v>
       </c>
       <c r="CL15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CM15" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CN15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CO15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CP15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CQ15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CR15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CS15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CT15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CU15" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="CV15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CW15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CX15" s="6">
         <v>280.071902473872</v>
       </c>
       <c r="CY15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="CZ15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DA15" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="DB15" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="CZ15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="DA15" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="DB15" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="DC15" s="6">
         <v>319.83480297445101</v>
       </c>
       <c r="DD15" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="DE15" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="DF15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DG15" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="DE15" s="6" t="s">
+      <c r="DH15" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="DF15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="DG15" s="6" t="s">
+      <c r="DI15" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="DH15" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="DI15" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="DJ15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DK15" s="6"/>
       <c r="DL15" s="6"/>
@@ -6317,161 +6289,161 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="35" t="s">
-        <v>617</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>617</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>630</v>
+      <c r="F16" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>615</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>628</v>
       </c>
       <c r="I16" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="L16" s="13">
         <v>1035.471</v>
       </c>
       <c r="M16" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="O16" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="P16" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="Q16" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="R16" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="S16" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="T16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="V16" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="T16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="13" t="s">
+      <c r="W16" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="V16" s="13" t="s">
+      <c r="X16" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="W16" s="13" t="s">
+      <c r="Y16" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="X16" s="13" t="s">
+      <c r="Z16" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="Y16" s="13" t="s">
+      <c r="AA16" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="Z16" s="45" t="s">
+      <c r="AB16" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC16" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="AA16" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB16" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC16" s="13" t="s">
-        <v>214</v>
       </c>
       <c r="AD16" s="13">
         <v>1311.854</v>
       </c>
       <c r="AE16" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF16" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG16" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="AF16" s="13" t="s">
+      <c r="AH16" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="AG16" s="13" t="s">
+      <c r="AI16" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="AH16" s="13" t="s">
+      <c r="AJ16" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="AI16" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="AJ16" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="AK16" s="13">
         <v>555.39971542332796</v>
       </c>
       <c r="AL16" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM16" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN16" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="AM16" s="13" t="s">
+      <c r="AO16" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AN16" s="13" t="s">
+      <c r="AP16" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AO16" s="13" t="s">
+      <c r="AQ16" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="AP16" s="6" t="s">
+      <c r="AR16" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="AQ16" s="6" t="s">
+      <c r="AS16" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="AR16" s="6" t="s">
+      <c r="AT16" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="AS16" s="6" t="s">
+      <c r="AU16" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AT16" s="6" t="s">
+      <c r="AV16" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="AU16" s="6" t="s">
+      <c r="AW16" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="AV16" s="6" t="s">
+      <c r="AX16" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="AW16" s="6" t="s">
+      <c r="AY16" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="AX16" s="6" t="s">
+      <c r="AZ16" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AY16" s="6" t="s">
+      <c r="BA16" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="AZ16" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="BA16" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="BB16" s="6">
         <v>1819.39787199075</v>
       </c>
       <c r="BC16" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="BD16" s="6">
         <v>1006.05807735729</v>
       </c>
       <c r="BE16" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BF16" s="6">
         <v>1227.0868125009599</v>
@@ -6480,10 +6452,10 @@
         <v>574.94372411871802</v>
       </c>
       <c r="BH16" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BI16" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="BJ16" s="6">
         <v>3529.9602104717201</v>
@@ -6495,154 +6467,154 @@
         <v>481.58296223064099</v>
       </c>
       <c r="BM16" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BN16" s="6">
         <v>741.09403273384396</v>
       </c>
       <c r="BO16" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="BP16" s="6">
         <v>2531.3590895642601</v>
       </c>
       <c r="BQ16" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="BR16" s="6">
         <v>1347.25169246261</v>
       </c>
       <c r="BS16" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="BT16" s="6">
         <v>610.63039027524405</v>
       </c>
       <c r="BU16" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="BV16" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="BW16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BX16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CB16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CC16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD16" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="BV16" s="6" t="s">
+      <c r="CE16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CF16" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="BW16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BX16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BY16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BZ16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CA16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CB16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CC16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CD16" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="CE16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CF16" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="CG16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CH16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CI16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CJ16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CK16" s="6">
         <v>18.627116325680099</v>
       </c>
       <c r="CL16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CM16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CN16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CO16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CP16" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="CQ16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CR16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CS16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CT16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CU16" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CV16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CW16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CX16" s="6">
         <v>709.42611291973901</v>
       </c>
       <c r="CY16" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="CZ16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DA16" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="DB16" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="CZ16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="DA16" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="DB16" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="DC16" s="6">
         <v>257.10333354581502</v>
       </c>
       <c r="DD16" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="DE16" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="DF16" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="DE16" s="6" t="s">
+      <c r="DG16" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="DF16" s="6" t="s">
+      <c r="DH16" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="DG16" s="6" t="s">
+      <c r="DI16" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="DH16" s="6" t="s">
+      <c r="DJ16" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="DI16" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="DJ16" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="DK16" s="6"/>
       <c r="DL16" s="6"/>
@@ -6766,161 +6738,161 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="35" t="s">
-        <v>618</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>618</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>631</v>
+      <c r="F17" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>616</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>629</v>
       </c>
       <c r="I17" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="L17" s="13">
         <v>33.005466457848101</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O17" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q17" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="R17" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="S17" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="T17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="V17" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17" s="13" t="s">
+      <c r="W17" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="V17" s="13" t="s">
+      <c r="X17" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="W17" s="13" t="s">
+      <c r="Y17" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="X17" s="13" t="s">
+      <c r="Z17" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="Y17" s="13" t="s">
+      <c r="AA17" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="Z17" s="13" t="s">
+      <c r="AB17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC17" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="AA17" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC17" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="AD17" s="13">
         <v>2014.4205840172799</v>
       </c>
       <c r="AE17" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH17" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="AF17" s="13" t="s">
+      <c r="AI17" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="AG17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH17" s="13" t="s">
+      <c r="AJ17" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="AI17" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="AJ17" s="13" t="s">
-        <v>281</v>
       </c>
       <c r="AK17" s="13">
         <v>226.97747467702101</v>
       </c>
       <c r="AL17" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM17" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="AN17" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="AM17" s="13" t="s">
+      <c r="AO17" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="AN17" s="13" t="s">
+      <c r="AP17" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="AO17" s="13" t="s">
+      <c r="AQ17" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="AP17" s="6" t="s">
+      <c r="AR17" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="AQ17" s="6" t="s">
+      <c r="AS17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT17" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AR17" s="6" t="s">
+      <c r="AU17" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="AS17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT17" s="6" t="s">
+      <c r="AV17" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="AU17" s="6" t="s">
+      <c r="AW17" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="AV17" s="6" t="s">
+      <c r="AX17" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="AW17" s="6" t="s">
+      <c r="AY17" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="AX17" s="6" t="s">
+      <c r="AZ17" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="AY17" s="6" t="s">
+      <c r="BA17" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="AZ17" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="BA17" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="BB17" s="6">
         <v>511.576453808103</v>
       </c>
       <c r="BC17" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BD17" s="6">
         <v>466.212338765119</v>
       </c>
       <c r="BE17" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BF17" s="6">
         <v>709.06762574385903</v>
@@ -6929,10 +6901,10 @@
         <v>387.30061369386112</v>
       </c>
       <c r="BH17" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BI17" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BJ17" s="6">
         <v>795.53963533692604</v>
@@ -6944,154 +6916,154 @@
         <v>235.23443625379201</v>
       </c>
       <c r="BM17" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BN17" s="6">
         <v>643.32868143136602</v>
       </c>
       <c r="BO17" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="BP17" s="6">
         <v>324.94718801865798</v>
       </c>
       <c r="BQ17" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="BR17" s="6">
         <v>614.57648411915397</v>
       </c>
       <c r="BS17" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="BT17" s="6">
         <v>185.19277865151699</v>
       </c>
       <c r="BU17" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="BV17" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="BW17" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="BV17" s="6" t="s">
+      <c r="BX17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CB17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CC17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD17" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="BW17" s="6" t="s">
+      <c r="CE17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CF17" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="BX17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BY17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BZ17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CA17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CB17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CC17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CD17" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="CE17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CF17" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="CG17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CH17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CI17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CJ17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CK17" s="6">
         <v>24.8021197960555</v>
       </c>
       <c r="CL17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CM17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CN17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CO17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CP17" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="CQ17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CR17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CS17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CT17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CU17" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="CV17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CW17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CX17" s="6">
         <v>178.39491335222399</v>
       </c>
       <c r="CY17" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="CZ17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DA17" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="DB17" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="CZ17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="DA17" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="DB17" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="DC17" s="6">
         <v>177.921599094812</v>
       </c>
       <c r="DD17" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="DE17" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="DF17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DG17" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="DE17" s="6" t="s">
+      <c r="DH17" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="DF17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="DG17" s="6" t="s">
+      <c r="DI17" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="DH17" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="DI17" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="DJ17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DK17" s="6"/>
       <c r="DL17" s="6"/>
@@ -7216,160 +7188,160 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>619</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>632</v>
+        <v>617</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>617</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>630</v>
       </c>
       <c r="I18" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="L18" s="6">
         <v>2725.9241302404098</v>
       </c>
       <c r="M18" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="O18" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="Q18" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="R18" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="S18" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="T18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="V18" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="T18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="6" t="s">
+      <c r="W18" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="V18" s="6" t="s">
+      <c r="X18" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="W18" s="6" t="s">
+      <c r="Y18" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="X18" s="6" t="s">
+      <c r="Z18" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="Y18" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="Z18" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="AA18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD18" s="6">
         <v>110.629292871432</v>
       </c>
       <c r="AE18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF18" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI18" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="AG18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH18" s="6" t="s">
+      <c r="AJ18" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="AI18" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="AJ18" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="AK18" s="6">
         <v>413.55912449788798</v>
       </c>
       <c r="AL18" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="AM18" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN18" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AM18" s="6" t="s">
+      <c r="AO18" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AN18" s="6" t="s">
+      <c r="AP18" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AO18" s="6" t="s">
+      <c r="AQ18" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="AP18" s="6" t="s">
+      <c r="AR18" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="AQ18" s="6" t="s">
+      <c r="AS18" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AR18" s="6" t="s">
+      <c r="AT18" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="AS18" s="6" t="s">
+      <c r="AU18" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="AT18" s="6" t="s">
+      <c r="AV18" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="AU18" s="6" t="s">
+      <c r="AW18" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AV18" s="6" t="s">
+      <c r="AX18" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="AW18" s="6" t="s">
+      <c r="AY18" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="AX18" s="6" t="s">
+      <c r="AZ18" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="AY18" s="6" t="s">
+      <c r="BA18" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="AZ18" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="BA18" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="BB18" s="6">
         <v>715.715269633047</v>
       </c>
       <c r="BC18" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BD18" s="6">
         <v>873.15664129021604</v>
       </c>
       <c r="BE18" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BF18" s="6">
         <v>895.42492626244302</v>
@@ -7378,10 +7350,10 @@
         <v>536.494144930331</v>
       </c>
       <c r="BH18" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BI18" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BJ18" s="6">
         <v>863.50103889994</v>
@@ -7393,154 +7365,154 @@
         <v>236.98929314935299</v>
       </c>
       <c r="BM18" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="BN18" s="6">
         <v>349.28529892688499</v>
       </c>
       <c r="BO18" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="BP18" s="6">
         <v>344.19401009738999</v>
       </c>
       <c r="BQ18" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="BR18" s="6">
         <v>293.11702444208402</v>
       </c>
       <c r="BS18" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="BT18" s="6">
         <v>383.68700454757601</v>
       </c>
       <c r="BU18" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="BV18" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="BW18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BX18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CB18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CC18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD18" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="BV18" s="6" t="s">
+      <c r="CE18" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="BW18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BX18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BY18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BZ18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CA18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CB18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CC18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CD18" s="6" t="s">
+      <c r="CF18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CG18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CH18" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="CE18" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="CF18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CG18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CH18" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="CI18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CJ18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CK18" s="6">
         <v>19.545961456076999</v>
       </c>
       <c r="CL18" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CM18" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="CN18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CO18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CP18" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="CQ18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CR18" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="CN18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CO18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CP18" s="6" t="s">
+      <c r="CS18" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="CQ18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CR18" s="6" t="s">
+      <c r="CT18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CU18" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="CS18" s="6" t="s">
+      <c r="CV18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CW18" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="CT18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CU18" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="CV18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CW18" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="CX18" s="6">
         <v>231.09159838408399</v>
       </c>
       <c r="CY18" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="CZ18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="DA18" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="DB18" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="CZ18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="DA18" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="DB18" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="DC18" s="6">
         <v>568.99653823806705</v>
       </c>
       <c r="DD18" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="DE18" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="DF18" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="DE18" s="6" t="s">
+      <c r="DG18" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="DF18" s="6" t="s">
+      <c r="DH18" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="DG18" s="6" t="s">
+      <c r="DI18" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="DH18" s="6" t="s">
+      <c r="DJ18" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="DI18" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="DJ18" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="DK18" s="6"/>
       <c r="DL18" s="6"/>
@@ -7665,160 +7637,160 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>625</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>625</v>
+        <v>618</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>623</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L19" s="6">
         <v>17.0357291536547</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD19" s="6">
         <v>26.112979323733001</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK19" s="6">
         <v>16.132644872819501</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AU19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB19" s="6">
         <v>61.787151076409401</v>
       </c>
       <c r="BC19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD19" s="6">
         <v>31.6599406504915</v>
       </c>
       <c r="BE19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BF19" s="6">
         <v>42.179602848365597</v>
@@ -7827,10 +7799,10 @@
         <v>25.150798371959599</v>
       </c>
       <c r="BH19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BI19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BJ19" s="6">
         <v>69.341748359124495</v>
@@ -7842,154 +7814,154 @@
         <v>27.573858608521199</v>
       </c>
       <c r="BM19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BN19" s="6">
         <v>19.388598103781199</v>
       </c>
       <c r="BO19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BP19" s="6">
         <v>49.572982353311701</v>
       </c>
       <c r="BQ19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BR19" s="6">
         <v>65.450096142009102</v>
       </c>
       <c r="BS19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BT19" s="6">
         <v>17.845426777007599</v>
       </c>
       <c r="BU19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BV19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BW19" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="BX19" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="BY19" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="BX19" s="6" t="s">
+      <c r="BZ19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA19" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="BY19" s="6" t="s">
+      <c r="CB19" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="BZ19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CA19" s="6" t="s">
+      <c r="CC19" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="CB19" s="6" t="s">
+      <c r="CD19" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="CC19" s="6" t="s">
+      <c r="CE19" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="CD19" s="6" t="s">
+      <c r="CF19" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="CE19" s="6" t="s">
+      <c r="CG19" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="CF19" s="6" t="s">
+      <c r="CH19" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="CG19" s="6" t="s">
+      <c r="CI19" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="CH19" s="6" t="s">
+      <c r="CJ19" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="CI19" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="CJ19" s="6" t="s">
-        <v>397</v>
       </c>
       <c r="CK19" s="6">
         <v>140.03032230963501</v>
       </c>
       <c r="CL19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CM19" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="CN19" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="CO19" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="CN19" s="6" t="s">
+      <c r="CP19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CQ19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CR19" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="CO19" s="6" t="s">
+      <c r="CS19" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="CP19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CQ19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CR19" s="6" t="s">
+      <c r="CT19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CU19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CV19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CW19" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="CS19" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="CT19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CU19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CV19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CW19" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="CX19" s="6">
         <v>110.727897396313</v>
       </c>
       <c r="CY19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CZ19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DA19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DB19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DC19" s="6">
         <v>109.171775629907</v>
       </c>
       <c r="DD19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DE19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DF19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DG19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DH19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DI19" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DJ19" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="DK19" s="6"/>
       <c r="DL19" s="6"/>
@@ -8114,160 +8086,160 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>626</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>626</v>
+        <v>618</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>624</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>407</v>
       </c>
       <c r="L20" s="6">
         <v>34.263808630779302</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q20" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="R20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="T20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="R20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="6" t="s">
+      <c r="X20" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="T20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20" s="6" t="s">
+      <c r="Y20" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="X20" s="6" t="s">
+      <c r="Z20" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="Y20" s="6" t="s">
+      <c r="AA20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC20" s="6" t="s">
         <v>414</v>
-      </c>
-      <c r="Z20" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AA20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC20" s="6" t="s">
-        <v>416</v>
       </c>
       <c r="AD20" s="6">
         <v>99.584703150748098</v>
       </c>
       <c r="AE20" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="AF20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI20" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="AJ20" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="AK20" s="6">
         <v>111.97260338298599</v>
       </c>
       <c r="AL20" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN20" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AO20" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="AM20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN20" s="6" t="s">
+      <c r="AP20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ20" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="AO20" s="6" t="s">
+      <c r="AR20" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="AP20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ20" s="6" t="s">
+      <c r="AS20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT20" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="AR20" s="6" t="s">
+      <c r="AU20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX20" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="AS20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT20" s="6" t="s">
+      <c r="AY20" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="AU20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX20" s="6" t="s">
+      <c r="AZ20" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="AY20" s="6" t="s">
+      <c r="BA20" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="AZ20" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="BA20" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="BB20" s="6">
         <v>257.29226632541702</v>
       </c>
       <c r="BC20" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="BD20" s="6">
         <v>350.55816577610199</v>
       </c>
       <c r="BE20" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="BF20" s="6">
         <v>440.44574779767902</v>
@@ -8276,10 +8248,10 @@
         <v>124.56096651454099</v>
       </c>
       <c r="BH20" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="BI20" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="BJ20" s="6">
         <v>632.39004189834998</v>
@@ -8291,154 +8263,154 @@
         <v>254.20065863595801</v>
       </c>
       <c r="BM20" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BN20" s="6">
         <v>501.15582455777502</v>
       </c>
       <c r="BO20" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BP20" s="6">
         <v>273.135092950429</v>
       </c>
       <c r="BQ20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BR20" s="6">
         <v>185.66850953893999</v>
       </c>
       <c r="BS20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BT20" s="6">
         <v>309.34118140234602</v>
       </c>
       <c r="BU20" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="BV20" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="BW20" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="BV20" s="6" t="s">
+      <c r="BX20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CB20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CC20" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="BW20" s="6" t="s">
+      <c r="CD20" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="BX20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BY20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BZ20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CA20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CB20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CC20" s="6" t="s">
+      <c r="CE20" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="CD20" s="6" t="s">
+      <c r="CF20" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="CE20" s="6" t="s">
+      <c r="CG20" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="CF20" s="6" t="s">
+      <c r="CH20" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="CG20" s="6" t="s">
+      <c r="CI20" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="CH20" s="6" t="s">
+      <c r="CJ20" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="CI20" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="CJ20" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="CK20" s="6">
         <v>203.807795430753</v>
       </c>
       <c r="CL20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CM20" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="CN20" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="CO20" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="CN20" s="6" t="s">
+      <c r="CP20" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="CO20" s="6" t="s">
+      <c r="CQ20" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="CP20" s="6" t="s">
+      <c r="CR20" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="CQ20" s="6" t="s">
+      <c r="CS20" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="CR20" s="6" t="s">
+      <c r="CT20" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="CS20" s="6" t="s">
+      <c r="CU20" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="CT20" s="6" t="s">
+      <c r="CV20" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="CU20" s="6" t="s">
+      <c r="CW20" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="CV20" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="CW20" s="6" t="s">
-        <v>457</v>
       </c>
       <c r="CX20" s="6">
         <v>548.24119048696105</v>
       </c>
       <c r="CY20" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="CZ20" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="DA20" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="CZ20" s="6" t="s">
+      <c r="DB20" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="DA20" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="DB20" s="6" t="s">
-        <v>461</v>
       </c>
       <c r="DC20" s="6">
         <v>169.544268007677</v>
       </c>
       <c r="DD20" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="DE20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DF20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DG20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DH20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DI20" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="DJ20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DK20" s="6"/>
       <c r="DL20" s="6"/>
@@ -8563,160 +8535,160 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>627</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>627</v>
+        <v>618</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>625</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L21" s="6">
         <v>66.8606170838856</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O21" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="T21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W21" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="Q21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S21" s="6" t="s">
+      <c r="X21" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="T21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="U21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="V21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="W21" s="6" t="s">
+      <c r="Y21" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="X21" s="6" t="s">
+      <c r="Z21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC21" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="Y21" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="Z21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC21" s="6" t="s">
-        <v>472</v>
       </c>
       <c r="AD21" s="6">
         <v>176.50431482558301</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH21" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="AK21" s="6">
         <v>84.100265719044302</v>
       </c>
       <c r="AL21" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AM21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN21" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="AO21" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="AM21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN21" s="6" t="s">
+      <c r="AP21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ21" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="AO21" s="6" t="s">
+      <c r="AR21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX21" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="AP21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ21" s="6" t="s">
+      <c r="AY21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA21" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="AR21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AU21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AV21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AW21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX21" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="AY21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA21" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="BB21" s="6">
         <v>176.42426119540599</v>
       </c>
       <c r="BC21" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="BD21" s="6">
         <v>202.15439771663401</v>
       </c>
       <c r="BE21" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="BF21" s="6">
         <v>66.519411158665207</v>
@@ -8725,10 +8697,10 @@
         <v>59.744034520085201</v>
       </c>
       <c r="BH21" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="BI21" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BJ21" s="6">
         <v>343.04393221247398</v>
@@ -8740,154 +8712,154 @@
         <v>47.127773133378398</v>
       </c>
       <c r="BM21" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="BN21" s="6">
         <v>36.403099806528097</v>
       </c>
       <c r="BO21" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="BP21" s="6">
         <v>83.073331482815206</v>
       </c>
       <c r="BQ21" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="BR21" s="6">
         <v>67.985797354866193</v>
       </c>
       <c r="BS21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BT21" s="6">
         <v>90.707612574662093</v>
       </c>
       <c r="BU21" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="BV21" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="BW21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BX21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CB21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CC21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CD21" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="BV21" s="6" t="s">
+      <c r="CE21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CF21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CG21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CH21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CI21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CJ21" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="BW21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BX21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BY21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="BZ21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CA21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CB21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CC21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CD21" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="CE21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CF21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CG21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CH21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CI21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CJ21" s="6" t="s">
-        <v>492</v>
       </c>
       <c r="CK21" s="6">
         <v>27.7176036723103</v>
       </c>
       <c r="CL21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="CM21" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="CN21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="CO21" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="CP21" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="CN21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="CO21" s="6" t="s">
+      <c r="CQ21" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="CP21" s="6" t="s">
+      <c r="CR21" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="CQ21" s="6" t="s">
+      <c r="CS21" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="CR21" s="6" t="s">
+      <c r="CT21" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="CS21" s="6" t="s">
+      <c r="CU21" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="CT21" s="6" t="s">
+      <c r="CV21" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="CU21" s="6" t="s">
+      <c r="CW21" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="CV21" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="CW21" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="CX21" s="6">
         <v>447.10484928811599</v>
       </c>
       <c r="CY21" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="CZ21" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="DA21" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="CZ21" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="DA21" s="6" t="s">
-        <v>505</v>
-      </c>
       <c r="DB21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DC21" s="6">
         <v>72.483532528964005</v>
       </c>
       <c r="DD21" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="DE21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DF21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DG21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DH21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DI21" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="DJ21" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DK21" s="6"/>
       <c r="DL21" s="6"/>
@@ -9012,8 +8984,8 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="31"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="40"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -9239,8 +9211,8 @@
     </row>
     <row r="23" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="41"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -9466,8 +9438,8 @@
     </row>
     <row r="24" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="41"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -9693,8 +9665,8 @@
     </row>
     <row r="25" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="41"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -9920,8 +9892,8 @@
     </row>
     <row r="26" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B26" s="8"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="41"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -10147,8 +10119,8 @@
     </row>
     <row r="27" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="41"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -10374,8 +10346,8 @@
     </row>
     <row r="28" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B28" s="8"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="41"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -10601,8 +10573,8 @@
     </row>
     <row r="29" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="41"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="40"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -10828,8 +10800,8 @@
     </row>
     <row r="30" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B30" s="8"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="41"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="40"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -11055,8 +11027,8 @@
     </row>
     <row r="31" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="41"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="40"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -11282,8 +11254,8 @@
     </row>
     <row r="32" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B32" s="8"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="41"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -11509,8 +11481,8 @@
     </row>
     <row r="33" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="41"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -11736,8 +11708,8 @@
     </row>
     <row r="34" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="41"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -11963,8 +11935,8 @@
     </row>
     <row r="35" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="41"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -12190,8 +12162,8 @@
     </row>
     <row r="36" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B36" s="8"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="41"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -12417,8 +12389,8 @@
     </row>
     <row r="37" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B37" s="8"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="41"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -12644,8 +12616,8 @@
     </row>
     <row r="38" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B38" s="8"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="41"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -12871,8 +12843,8 @@
     </row>
     <row r="39" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="41"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -13098,8 +13070,8 @@
     </row>
     <row r="40" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="41"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -13325,8 +13297,8 @@
     </row>
     <row r="41" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="41"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -13552,8 +13524,8 @@
     </row>
     <row r="42" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="41"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -13779,8 +13751,8 @@
     </row>
     <row r="43" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="41"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="40"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -14006,8 +13978,8 @@
     </row>
     <row r="44" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="41"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -14233,8 +14205,8 @@
     </row>
     <row r="45" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="41"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -14460,8 +14432,8 @@
     </row>
     <row r="46" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="41"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="40"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -14687,8 +14659,8 @@
     </row>
     <row r="47" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="41"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -14914,8 +14886,8 @@
     </row>
     <row r="48" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="41"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -15141,8 +15113,8 @@
     </row>
     <row r="49" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="41"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -15368,8 +15340,8 @@
     </row>
     <row r="50" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B50" s="8"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="41"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -15595,8 +15567,8 @@
     </row>
     <row r="51" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="41"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -15822,8 +15794,8 @@
     </row>
     <row r="52" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B52" s="8"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="41"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="40"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -16049,8 +16021,8 @@
     </row>
     <row r="53" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B53" s="8"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="41"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="40"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -16276,8 +16248,8 @@
     </row>
     <row r="54" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B54" s="8"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="41"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="40"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -16503,8 +16475,8 @@
     </row>
     <row r="55" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="41"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="40"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -16730,8 +16702,8 @@
     </row>
     <row r="56" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B56" s="8"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="41"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="40"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -16957,8 +16929,8 @@
     </row>
     <row r="57" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="41"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="40"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -17184,8 +17156,8 @@
     </row>
     <row r="58" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B58" s="8"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="41"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -17411,8 +17383,8 @@
     </row>
     <row r="59" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="41"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="40"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -17638,8 +17610,8 @@
     </row>
     <row r="60" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B60" s="8"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="41"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="40"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -17865,8 +17837,8 @@
     </row>
     <row r="61" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="41"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="40"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -18092,8 +18064,8 @@
     </row>
     <row r="62" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B62" s="8"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="41"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="40"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -18319,8 +18291,8 @@
     </row>
     <row r="63" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="41"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="40"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -18546,8 +18518,8 @@
     </row>
     <row r="64" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B64" s="8"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="41"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="40"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -18773,8 +18745,8 @@
     </row>
     <row r="65" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="41"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="40"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -19000,8 +18972,8 @@
     </row>
     <row r="66" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B66" s="8"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="41"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="40"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -19227,8 +19199,8 @@
     </row>
     <row r="67" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="41"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="40"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -19454,8 +19426,8 @@
     </row>
     <row r="68" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B68" s="8"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="41"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="40"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -19681,8 +19653,8 @@
     </row>
     <row r="69" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="41"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="40"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -19908,8 +19880,8 @@
     </row>
     <row r="70" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B70" s="8"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="41"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="40"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -20135,8 +20107,8 @@
     </row>
     <row r="71" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B71" s="11"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="41"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="40"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -20362,8 +20334,8 @@
     </row>
     <row r="72" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B72" s="11"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="41"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="40"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -20589,8 +20561,8 @@
     </row>
     <row r="73" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B73" s="11"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="41"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="40"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -20816,8 +20788,8 @@
     </row>
     <row r="74" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B74" s="11"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="41"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="40"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
@@ -21043,8 +21015,8 @@
     </row>
     <row r="75" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B75" s="11"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="41"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="40"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -21270,8 +21242,8 @@
     </row>
     <row r="76" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B76" s="11"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="41"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="40"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
@@ -21497,8 +21469,8 @@
     </row>
     <row r="77" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B77" s="11"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="41"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="40"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -21724,8 +21696,8 @@
     </row>
     <row r="78" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B78" s="11"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="41"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="40"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
@@ -21951,8 +21923,8 @@
     </row>
     <row r="79" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B79" s="11"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="41"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="40"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -22178,8 +22150,8 @@
     </row>
     <row r="80" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B80" s="11"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="41"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="40"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -22405,8 +22377,8 @@
     </row>
     <row r="81" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B81" s="11"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="41"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="40"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -22632,8 +22604,8 @@
     </row>
     <row r="82" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B82" s="11"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="41"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="40"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
@@ -22859,8 +22831,8 @@
     </row>
     <row r="83" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B83" s="11"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="41"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="40"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -23086,8 +23058,8 @@
     </row>
     <row r="84" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B84" s="11"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="41"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="40"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -23313,8 +23285,8 @@
     </row>
     <row r="85" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B85" s="11"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="41"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="40"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -23540,8 +23512,8 @@
     </row>
     <row r="86" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B86" s="11"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="41"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="40"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
@@ -23767,8 +23739,8 @@
     </row>
     <row r="87" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B87" s="11"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="41"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="40"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
@@ -23994,8 +23966,8 @@
     </row>
     <row r="88" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B88" s="11"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="41"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="40"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
@@ -24221,8 +24193,8 @@
     </row>
     <row r="89" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B89" s="11"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="41"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="40"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
@@ -24448,8 +24420,8 @@
     </row>
     <row r="90" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B90" s="11"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="41"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="40"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
@@ -24675,8 +24647,8 @@
     </row>
     <row r="91" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B91" s="11"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="41"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="40"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
@@ -24902,8 +24874,8 @@
     </row>
     <row r="92" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B92" s="11"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="41"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="40"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
@@ -25129,8 +25101,8 @@
     </row>
     <row r="93" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B93" s="11"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="41"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="40"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -25356,8 +25328,8 @@
     </row>
     <row r="94" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B94" s="11"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="41"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="40"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
@@ -25583,8 +25555,8 @@
     </row>
     <row r="95" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B95" s="11"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="41"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="40"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
@@ -25810,8 +25782,8 @@
     </row>
     <row r="96" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B96" s="11"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="41"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="40"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
@@ -26037,8 +26009,8 @@
     </row>
     <row r="97" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B97" s="11"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="41"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="40"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -26264,8 +26236,8 @@
     </row>
     <row r="98" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B98" s="11"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="41"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="40"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
@@ -26491,8 +26463,8 @@
     </row>
     <row r="99" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B99" s="11"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="41"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="40"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
@@ -26718,8 +26690,8 @@
     </row>
     <row r="100" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B100" s="11"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="41"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="40"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
@@ -26945,8 +26917,8 @@
     </row>
     <row r="101" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B101" s="11"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="41"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="40"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
@@ -27172,8 +27144,8 @@
     </row>
     <row r="102" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B102" s="11"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="41"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="40"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
@@ -27399,8 +27371,8 @@
     </row>
     <row r="103" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B103" s="11"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="41"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="40"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -27626,8 +27598,8 @@
     </row>
     <row r="104" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B104" s="11"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="41"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="40"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
@@ -27853,8 +27825,8 @@
     </row>
     <row r="105" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B105" s="11"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="41"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="40"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
@@ -28080,8 +28052,8 @@
     </row>
     <row r="106" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B106" s="11"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="41"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="40"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
@@ -28307,8 +28279,8 @@
     </row>
     <row r="107" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B107" s="11"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="41"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="40"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
@@ -28534,8 +28506,8 @@
     </row>
     <row r="108" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B108" s="11"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="41"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="40"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
@@ -28761,8 +28733,8 @@
     </row>
     <row r="109" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B109" s="11"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="41"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="40"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
@@ -28988,8 +28960,8 @@
     </row>
     <row r="110" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B110" s="11"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="41"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="40"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
@@ -29215,8 +29187,8 @@
     </row>
     <row r="111" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B111" s="11"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="41"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="40"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
@@ -29442,8 +29414,8 @@
     </row>
     <row r="112" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B112" s="11"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="41"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="40"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
@@ -29669,8 +29641,8 @@
     </row>
     <row r="113" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B113" s="11"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="41"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="40"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
@@ -29896,8 +29868,8 @@
     </row>
     <row r="114" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B114" s="11"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="41"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="40"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
@@ -30123,8 +30095,8 @@
     </row>
     <row r="115" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B115" s="11"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="41"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="40"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
@@ -30350,8 +30322,8 @@
     </row>
     <row r="116" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B116" s="11"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="41"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="40"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
@@ -30577,8 +30549,8 @@
     </row>
     <row r="117" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B117" s="11"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="41"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="40"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
@@ -30804,8 +30776,8 @@
     </row>
     <row r="118" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B118" s="11"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="41"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="40"/>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
@@ -31031,8 +31003,8 @@
     </row>
     <row r="119" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B119" s="11"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="41"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="40"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
@@ -31258,8 +31230,8 @@
     </row>
     <row r="120" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B120" s="11"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="41"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="40"/>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
@@ -31485,8 +31457,8 @@
     </row>
     <row r="121" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B121" s="11"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="41"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="40"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
@@ -31712,8 +31684,8 @@
     </row>
     <row r="122" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B122" s="11"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="41"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="40"/>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
@@ -31939,8 +31911,8 @@
     </row>
     <row r="123" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B123" s="11"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="41"/>
+      <c r="G123" s="43"/>
+      <c r="H123" s="40"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
@@ -32166,8 +32138,8 @@
     </row>
     <row r="124" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B124" s="11"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="41"/>
+      <c r="G124" s="43"/>
+      <c r="H124" s="40"/>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
@@ -32393,8 +32365,8 @@
     </row>
     <row r="125" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B125" s="11"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="41"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="40"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
@@ -32620,8 +32592,8 @@
     </row>
     <row r="126" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B126" s="11"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="41"/>
+      <c r="G126" s="43"/>
+      <c r="H126" s="40"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
@@ -32847,8 +32819,8 @@
     </row>
     <row r="127" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B127" s="11"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="41"/>
+      <c r="G127" s="43"/>
+      <c r="H127" s="40"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
@@ -33074,8 +33046,8 @@
     </row>
     <row r="128" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B128" s="11"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="41"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="40"/>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
@@ -33301,8 +33273,8 @@
     </row>
     <row r="129" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B129" s="11"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="41"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="40"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
@@ -33528,8 +33500,8 @@
     </row>
     <row r="130" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B130" s="11"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="41"/>
+      <c r="G130" s="43"/>
+      <c r="H130" s="40"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
@@ -33755,8 +33727,8 @@
     </row>
     <row r="131" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B131" s="11"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="41"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="40"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
@@ -33982,8 +33954,8 @@
     </row>
     <row r="132" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B132" s="11"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="41"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="40"/>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
@@ -34209,8 +34181,8 @@
     </row>
     <row r="133" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B133" s="11"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="41"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="40"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
@@ -34436,8 +34408,8 @@
     </row>
     <row r="134" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B134" s="11"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="41"/>
+      <c r="G134" s="43"/>
+      <c r="H134" s="40"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
@@ -34663,8 +34635,8 @@
     </row>
     <row r="135" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B135" s="11"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="41"/>
+      <c r="G135" s="43"/>
+      <c r="H135" s="40"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
@@ -34890,8 +34862,8 @@
     </row>
     <row r="136" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B136" s="11"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="41"/>
+      <c r="G136" s="43"/>
+      <c r="H136" s="40"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
@@ -35117,8 +35089,8 @@
     </row>
     <row r="137" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B137" s="11"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="41"/>
+      <c r="G137" s="43"/>
+      <c r="H137" s="40"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
@@ -35344,8 +35316,8 @@
     </row>
     <row r="138" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B138" s="11"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="41"/>
+      <c r="G138" s="43"/>
+      <c r="H138" s="40"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
@@ -35571,8 +35543,8 @@
     </row>
     <row r="139" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B139" s="11"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="41"/>
+      <c r="G139" s="43"/>
+      <c r="H139" s="40"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
@@ -35798,8 +35770,8 @@
     </row>
     <row r="140" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B140" s="11"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="41"/>
+      <c r="G140" s="43"/>
+      <c r="H140" s="40"/>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
@@ -36025,8 +35997,8 @@
     </row>
     <row r="141" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B141" s="11"/>
-      <c r="G141" s="44"/>
-      <c r="H141" s="41"/>
+      <c r="G141" s="43"/>
+      <c r="H141" s="40"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
@@ -36252,8 +36224,8 @@
     </row>
     <row r="142" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B142" s="11"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="41"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="40"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
@@ -36479,8 +36451,8 @@
     </row>
     <row r="143" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B143" s="11"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="41"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="40"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
@@ -36706,8 +36678,8 @@
     </row>
     <row r="144" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B144" s="11"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="41"/>
+      <c r="G144" s="43"/>
+      <c r="H144" s="40"/>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
@@ -36933,8 +36905,8 @@
     </row>
     <row r="145" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B145" s="11"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="41"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="40"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
@@ -37160,8 +37132,8 @@
     </row>
     <row r="146" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B146" s="11"/>
-      <c r="G146" s="44"/>
-      <c r="H146" s="41"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="40"/>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
@@ -37387,8 +37359,8 @@
     </row>
     <row r="147" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B147" s="11"/>
-      <c r="G147" s="44"/>
-      <c r="H147" s="41"/>
+      <c r="G147" s="43"/>
+      <c r="H147" s="40"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
@@ -37614,8 +37586,8 @@
     </row>
     <row r="148" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B148" s="11"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="41"/>
+      <c r="G148" s="43"/>
+      <c r="H148" s="40"/>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
@@ -37841,8 +37813,8 @@
     </row>
     <row r="149" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B149" s="11"/>
-      <c r="G149" s="44"/>
-      <c r="H149" s="41"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="40"/>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
@@ -38068,8 +38040,8 @@
     </row>
     <row r="150" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B150" s="11"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="41"/>
+      <c r="G150" s="43"/>
+      <c r="H150" s="40"/>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
@@ -38295,8 +38267,8 @@
     </row>
     <row r="151" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B151" s="11"/>
-      <c r="G151" s="44"/>
-      <c r="H151" s="41"/>
+      <c r="G151" s="43"/>
+      <c r="H151" s="40"/>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
@@ -38522,8 +38494,8 @@
     </row>
     <row r="152" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B152" s="11"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="41"/>
+      <c r="G152" s="43"/>
+      <c r="H152" s="40"/>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
@@ -38749,8 +38721,8 @@
     </row>
     <row r="153" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B153" s="11"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="41"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="40"/>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
@@ -38976,8 +38948,8 @@
     </row>
     <row r="154" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B154" s="11"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="41"/>
+      <c r="G154" s="43"/>
+      <c r="H154" s="40"/>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
@@ -39203,8 +39175,8 @@
     </row>
     <row r="155" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B155" s="11"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="41"/>
+      <c r="G155" s="43"/>
+      <c r="H155" s="40"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
@@ -39430,8 +39402,8 @@
     </row>
     <row r="156" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B156" s="11"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="41"/>
+      <c r="G156" s="43"/>
+      <c r="H156" s="40"/>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
@@ -39657,8 +39629,8 @@
     </row>
     <row r="157" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B157" s="11"/>
-      <c r="G157" s="44"/>
-      <c r="H157" s="41"/>
+      <c r="G157" s="43"/>
+      <c r="H157" s="40"/>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
@@ -39884,8 +39856,8 @@
     </row>
     <row r="158" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B158" s="11"/>
-      <c r="G158" s="44"/>
-      <c r="H158" s="41"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="40"/>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
@@ -40111,8 +40083,8 @@
     </row>
     <row r="159" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B159" s="11"/>
-      <c r="G159" s="44"/>
-      <c r="H159" s="41"/>
+      <c r="G159" s="43"/>
+      <c r="H159" s="40"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
@@ -40338,8 +40310,8 @@
     </row>
     <row r="160" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B160" s="11"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="41"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="40"/>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
@@ -40565,8 +40537,8 @@
     </row>
     <row r="161" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B161" s="11"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="41"/>
+      <c r="G161" s="43"/>
+      <c r="H161" s="40"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
@@ -40792,8 +40764,8 @@
     </row>
     <row r="162" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B162" s="11"/>
-      <c r="G162" s="44"/>
-      <c r="H162" s="41"/>
+      <c r="G162" s="43"/>
+      <c r="H162" s="40"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
@@ -41019,8 +40991,8 @@
     </row>
     <row r="163" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B163" s="11"/>
-      <c r="G163" s="44"/>
-      <c r="H163" s="41"/>
+      <c r="G163" s="43"/>
+      <c r="H163" s="40"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
@@ -41246,8 +41218,8 @@
     </row>
     <row r="164" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B164" s="11"/>
-      <c r="G164" s="44"/>
-      <c r="H164" s="41"/>
+      <c r="G164" s="43"/>
+      <c r="H164" s="40"/>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
@@ -41473,8 +41445,8 @@
     </row>
     <row r="165" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B165" s="11"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="41"/>
+      <c r="G165" s="43"/>
+      <c r="H165" s="40"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
@@ -41700,8 +41672,8 @@
     </row>
     <row r="166" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B166" s="11"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="41"/>
+      <c r="G166" s="43"/>
+      <c r="H166" s="40"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
@@ -41927,8 +41899,8 @@
     </row>
     <row r="167" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B167" s="11"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="41"/>
+      <c r="G167" s="43"/>
+      <c r="H167" s="40"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
@@ -42154,8 +42126,8 @@
     </row>
     <row r="168" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B168" s="11"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="41"/>
+      <c r="G168" s="43"/>
+      <c r="H168" s="40"/>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
@@ -42381,8 +42353,8 @@
     </row>
     <row r="169" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B169" s="11"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="41"/>
+      <c r="G169" s="43"/>
+      <c r="H169" s="40"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
@@ -42608,8 +42580,8 @@
     </row>
     <row r="170" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B170" s="11"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="41"/>
+      <c r="G170" s="43"/>
+      <c r="H170" s="40"/>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
@@ -42835,8 +42807,8 @@
     </row>
     <row r="171" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B171" s="11"/>
-      <c r="G171" s="44"/>
-      <c r="H171" s="41"/>
+      <c r="G171" s="43"/>
+      <c r="H171" s="40"/>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
@@ -43062,8 +43034,8 @@
     </row>
     <row r="172" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B172" s="11"/>
-      <c r="G172" s="44"/>
-      <c r="H172" s="41"/>
+      <c r="G172" s="43"/>
+      <c r="H172" s="40"/>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
@@ -43289,8 +43261,8 @@
     </row>
     <row r="173" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B173" s="11"/>
-      <c r="G173" s="44"/>
-      <c r="H173" s="41"/>
+      <c r="G173" s="43"/>
+      <c r="H173" s="40"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
@@ -43516,8 +43488,8 @@
     </row>
     <row r="174" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B174" s="11"/>
-      <c r="G174" s="44"/>
-      <c r="H174" s="41"/>
+      <c r="G174" s="43"/>
+      <c r="H174" s="40"/>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
@@ -43743,8 +43715,8 @@
     </row>
     <row r="175" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B175" s="11"/>
-      <c r="G175" s="44"/>
-      <c r="H175" s="41"/>
+      <c r="G175" s="43"/>
+      <c r="H175" s="40"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
@@ -43970,8 +43942,8 @@
     </row>
     <row r="176" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B176" s="11"/>
-      <c r="G176" s="44"/>
-      <c r="H176" s="41"/>
+      <c r="G176" s="43"/>
+      <c r="H176" s="40"/>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
@@ -44197,8 +44169,8 @@
     </row>
     <row r="177" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B177" s="11"/>
-      <c r="G177" s="44"/>
-      <c r="H177" s="41"/>
+      <c r="G177" s="43"/>
+      <c r="H177" s="40"/>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
@@ -44424,8 +44396,8 @@
     </row>
     <row r="178" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B178" s="11"/>
-      <c r="G178" s="44"/>
-      <c r="H178" s="41"/>
+      <c r="G178" s="43"/>
+      <c r="H178" s="40"/>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
@@ -44651,8 +44623,8 @@
     </row>
     <row r="179" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B179" s="11"/>
-      <c r="G179" s="44"/>
-      <c r="H179" s="41"/>
+      <c r="G179" s="43"/>
+      <c r="H179" s="40"/>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
@@ -44878,8 +44850,8 @@
     </row>
     <row r="180" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B180" s="11"/>
-      <c r="G180" s="44"/>
-      <c r="H180" s="41"/>
+      <c r="G180" s="43"/>
+      <c r="H180" s="40"/>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
@@ -45105,8 +45077,8 @@
     </row>
     <row r="181" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B181" s="11"/>
-      <c r="G181" s="44"/>
-      <c r="H181" s="41"/>
+      <c r="G181" s="43"/>
+      <c r="H181" s="40"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
@@ -45332,8 +45304,8 @@
     </row>
     <row r="182" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B182" s="11"/>
-      <c r="G182" s="44"/>
-      <c r="H182" s="41"/>
+      <c r="G182" s="43"/>
+      <c r="H182" s="40"/>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
@@ -45559,8 +45531,8 @@
     </row>
     <row r="183" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B183" s="11"/>
-      <c r="G183" s="44"/>
-      <c r="H183" s="41"/>
+      <c r="G183" s="43"/>
+      <c r="H183" s="40"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
@@ -45786,8 +45758,8 @@
     </row>
     <row r="184" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B184" s="11"/>
-      <c r="G184" s="44"/>
-      <c r="H184" s="41"/>
+      <c r="G184" s="43"/>
+      <c r="H184" s="40"/>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
@@ -46013,8 +45985,8 @@
     </row>
     <row r="185" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B185" s="11"/>
-      <c r="G185" s="44"/>
-      <c r="H185" s="41"/>
+      <c r="G185" s="43"/>
+      <c r="H185" s="40"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
@@ -46240,8 +46212,8 @@
     </row>
     <row r="186" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B186" s="11"/>
-      <c r="G186" s="44"/>
-      <c r="H186" s="41"/>
+      <c r="G186" s="43"/>
+      <c r="H186" s="40"/>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
@@ -46467,8 +46439,8 @@
     </row>
     <row r="187" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B187" s="11"/>
-      <c r="G187" s="44"/>
-      <c r="H187" s="41"/>
+      <c r="G187" s="43"/>
+      <c r="H187" s="40"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
@@ -46694,8 +46666,8 @@
     </row>
     <row r="188" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B188" s="11"/>
-      <c r="G188" s="44"/>
-      <c r="H188" s="41"/>
+      <c r="G188" s="43"/>
+      <c r="H188" s="40"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
@@ -46921,8 +46893,8 @@
     </row>
     <row r="189" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B189" s="11"/>
-      <c r="G189" s="44"/>
-      <c r="H189" s="41"/>
+      <c r="G189" s="43"/>
+      <c r="H189" s="40"/>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
@@ -47148,8 +47120,8 @@
     </row>
     <row r="190" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B190" s="11"/>
-      <c r="G190" s="44"/>
-      <c r="H190" s="41"/>
+      <c r="G190" s="43"/>
+      <c r="H190" s="40"/>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
@@ -47375,8 +47347,8 @@
     </row>
     <row r="191" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B191" s="11"/>
-      <c r="G191" s="44"/>
-      <c r="H191" s="41"/>
+      <c r="G191" s="43"/>
+      <c r="H191" s="40"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
@@ -47602,8 +47574,8 @@
     </row>
     <row r="192" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B192" s="11"/>
-      <c r="G192" s="44"/>
-      <c r="H192" s="41"/>
+      <c r="G192" s="43"/>
+      <c r="H192" s="40"/>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
@@ -47829,8 +47801,8 @@
     </row>
     <row r="193" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B193" s="11"/>
-      <c r="G193" s="44"/>
-      <c r="H193" s="41"/>
+      <c r="G193" s="43"/>
+      <c r="H193" s="40"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
@@ -48056,8 +48028,8 @@
     </row>
     <row r="194" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B194" s="11"/>
-      <c r="G194" s="44"/>
-      <c r="H194" s="41"/>
+      <c r="G194" s="43"/>
+      <c r="H194" s="40"/>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
@@ -48283,8 +48255,8 @@
     </row>
     <row r="195" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B195" s="11"/>
-      <c r="G195" s="44"/>
-      <c r="H195" s="41"/>
+      <c r="G195" s="43"/>
+      <c r="H195" s="40"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
@@ -48510,8 +48482,8 @@
     </row>
     <row r="196" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B196" s="11"/>
-      <c r="G196" s="44"/>
-      <c r="H196" s="41"/>
+      <c r="G196" s="43"/>
+      <c r="H196" s="40"/>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
@@ -48737,8 +48709,8 @@
     </row>
     <row r="197" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B197" s="11"/>
-      <c r="G197" s="44"/>
-      <c r="H197" s="41"/>
+      <c r="G197" s="43"/>
+      <c r="H197" s="40"/>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
@@ -48964,8 +48936,8 @@
     </row>
     <row r="198" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B198" s="11"/>
-      <c r="G198" s="44"/>
-      <c r="H198" s="41"/>
+      <c r="G198" s="43"/>
+      <c r="H198" s="40"/>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
@@ -49191,8 +49163,8 @@
     </row>
     <row r="199" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B199" s="11"/>
-      <c r="G199" s="44"/>
-      <c r="H199" s="41"/>
+      <c r="G199" s="43"/>
+      <c r="H199" s="40"/>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
       <c r="K199" s="6"/>
@@ -49418,8 +49390,8 @@
     </row>
     <row r="200" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B200" s="11"/>
-      <c r="G200" s="44"/>
-      <c r="H200" s="41"/>
+      <c r="G200" s="43"/>
+      <c r="H200" s="40"/>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
       <c r="K200" s="6"/>
@@ -49645,8 +49617,8 @@
     </row>
     <row r="201" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B201" s="11"/>
-      <c r="G201" s="44"/>
-      <c r="H201" s="41"/>
+      <c r="G201" s="43"/>
+      <c r="H201" s="40"/>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
       <c r="K201" s="6"/>
@@ -49872,8 +49844,8 @@
     </row>
     <row r="202" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B202" s="11"/>
-      <c r="G202" s="44"/>
-      <c r="H202" s="41"/>
+      <c r="G202" s="43"/>
+      <c r="H202" s="40"/>
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
       <c r="K202" s="6"/>
@@ -50099,8 +50071,8 @@
     </row>
     <row r="203" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B203" s="11"/>
-      <c r="G203" s="44"/>
-      <c r="H203" s="41"/>
+      <c r="G203" s="43"/>
+      <c r="H203" s="40"/>
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
       <c r="K203" s="6"/>
@@ -50326,8 +50298,8 @@
     </row>
     <row r="204" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B204" s="11"/>
-      <c r="G204" s="44"/>
-      <c r="H204" s="41"/>
+      <c r="G204" s="43"/>
+      <c r="H204" s="40"/>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
       <c r="K204" s="6"/>
@@ -50553,8 +50525,8 @@
     </row>
     <row r="205" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B205" s="11"/>
-      <c r="G205" s="44"/>
-      <c r="H205" s="41"/>
+      <c r="G205" s="43"/>
+      <c r="H205" s="40"/>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
       <c r="K205" s="6"/>
@@ -50780,8 +50752,8 @@
     </row>
     <row r="206" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B206" s="11"/>
-      <c r="G206" s="44"/>
-      <c r="H206" s="41"/>
+      <c r="G206" s="43"/>
+      <c r="H206" s="40"/>
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
       <c r="K206" s="6"/>
@@ -51007,8 +50979,8 @@
     </row>
     <row r="207" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B207" s="11"/>
-      <c r="G207" s="44"/>
-      <c r="H207" s="41"/>
+      <c r="G207" s="43"/>
+      <c r="H207" s="40"/>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
       <c r="K207" s="6"/>
@@ -51234,8 +51206,8 @@
     </row>
     <row r="208" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B208" s="11"/>
-      <c r="G208" s="44"/>
-      <c r="H208" s="41"/>
+      <c r="G208" s="43"/>
+      <c r="H208" s="40"/>
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
       <c r="K208" s="6"/>
@@ -51461,8 +51433,8 @@
     </row>
     <row r="209" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B209" s="11"/>
-      <c r="G209" s="44"/>
-      <c r="H209" s="41"/>
+      <c r="G209" s="43"/>
+      <c r="H209" s="40"/>
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
       <c r="K209" s="6"/>
@@ -51688,8 +51660,8 @@
     </row>
     <row r="210" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B210" s="11"/>
-      <c r="G210" s="44"/>
-      <c r="H210" s="41"/>
+      <c r="G210" s="43"/>
+      <c r="H210" s="40"/>
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
       <c r="K210" s="6"/>
@@ -51915,8 +51887,8 @@
     </row>
     <row r="211" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B211" s="11"/>
-      <c r="G211" s="44"/>
-      <c r="H211" s="41"/>
+      <c r="G211" s="43"/>
+      <c r="H211" s="40"/>
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
       <c r="K211" s="6"/>
@@ -52142,8 +52114,8 @@
     </row>
     <row r="212" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B212" s="11"/>
-      <c r="G212" s="44"/>
-      <c r="H212" s="41"/>
+      <c r="G212" s="43"/>
+      <c r="H212" s="40"/>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
       <c r="K212" s="6"/>
@@ -52369,8 +52341,8 @@
     </row>
     <row r="213" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B213" s="11"/>
-      <c r="G213" s="44"/>
-      <c r="H213" s="41"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="40"/>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
       <c r="K213" s="6"/>
@@ -52596,8 +52568,8 @@
     </row>
     <row r="214" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B214" s="11"/>
-      <c r="G214" s="44"/>
-      <c r="H214" s="41"/>
+      <c r="G214" s="43"/>
+      <c r="H214" s="40"/>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
       <c r="K214" s="6"/>
@@ -52823,8 +52795,8 @@
     </row>
     <row r="215" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B215" s="11"/>
-      <c r="G215" s="44"/>
-      <c r="H215" s="41"/>
+      <c r="G215" s="43"/>
+      <c r="H215" s="40"/>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
       <c r="K215" s="6"/>
@@ -53050,8 +53022,8 @@
     </row>
     <row r="216" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B216" s="11"/>
-      <c r="G216" s="44"/>
-      <c r="H216" s="41"/>
+      <c r="G216" s="43"/>
+      <c r="H216" s="40"/>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
       <c r="K216" s="6"/>
@@ -53277,8 +53249,8 @@
     </row>
     <row r="217" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B217" s="11"/>
-      <c r="G217" s="44"/>
-      <c r="H217" s="41"/>
+      <c r="G217" s="43"/>
+      <c r="H217" s="40"/>
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
       <c r="K217" s="6"/>
@@ -53504,8 +53476,8 @@
     </row>
     <row r="218" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B218" s="11"/>
-      <c r="G218" s="44"/>
-      <c r="H218" s="41"/>
+      <c r="G218" s="43"/>
+      <c r="H218" s="40"/>
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
       <c r="K218" s="6"/>
@@ -53731,8 +53703,8 @@
     </row>
     <row r="219" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B219" s="11"/>
-      <c r="G219" s="44"/>
-      <c r="H219" s="41"/>
+      <c r="G219" s="43"/>
+      <c r="H219" s="40"/>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
       <c r="K219" s="6"/>
@@ -53958,8 +53930,8 @@
     </row>
     <row r="220" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B220" s="11"/>
-      <c r="G220" s="44"/>
-      <c r="H220" s="41"/>
+      <c r="G220" s="43"/>
+      <c r="H220" s="40"/>
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
       <c r="K220" s="6"/>
@@ -54185,8 +54157,8 @@
     </row>
     <row r="221" spans="2:230" x14ac:dyDescent="0.35">
       <c r="B221" s="11"/>
-      <c r="G221" s="44"/>
-      <c r="H221" s="41"/>
+      <c r="G221" s="43"/>
+      <c r="H221" s="40"/>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
       <c r="K221" s="6"/>
@@ -54569,12 +54541,11 @@
     <mergeCell ref="C1:M1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <dataValidations xWindow="1215" yWindow="793" count="16">
+  <dataValidations xWindow="1215" yWindow="793" count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Virus type" prompt="Write here the type (or family) of virus (e.g. influenza A)._x000a_Can NOT be left empty. " sqref="F3" xr:uid="{5FB6E821-041A-450E-AB22-E8B9F1E3DE60}"/>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Version control of template" prompt="In case the template is updated, please change the date here. " sqref="C4" xr:uid="{DE7B4072-35BB-4EA0-9620-D7950894DA02}">
       <formula1>45363</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Insert file path here" prompt="Copy file path from &quot;File Explorer&quot; and paste it here. This is where the plots, report and Racmacs interface. " sqref="C7" xr:uid="{27B9733A-C5B7-4500-B65E-95C3FA937881}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="(optional) Insert strain origin" prompt="In the format of: _x000a_&lt;virus type and subtype/origin/strain number/year isolated&gt; _x000a_An example could be; &lt;seasonal influenza A(H3N2)/Perth/16/2019&gt;" sqref="D13:D221" xr:uid="{07E23837-5D22-427F-B224-D5B1FA90F7C0}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="(optional) Insert SSI name" prompt="Insert the name the antigen is known as within the SSI system. " sqref="E13:E221" xr:uid="{0DA7DC1C-F230-4A91-9D52-E83BB5DE063D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Insert antigenic group" prompt="IMPORTANT: If an antigen in use corresponds to the antigen in &quot;Serum exposure&quot;, proceed to write it here identically to &quot;Serum exposure:&quot;_x000a_Beyond that, the idea is to write e.g. &quot;Delta&quot; at each instance of Delta variant in a COVID dataset. " sqref="F13:F221" xr:uid="{194C4819-7700-47AB-A9FA-060C5A8AC6F1}"/>
@@ -54596,12 +54567,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008E38A6EF0D87AA46993DD52020FE3E27" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="dfe1cc72eea7af3507f75b45ca8c569c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a042ee54-f02a-415e-9595-341646dc5167" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ecb1440112991bebd2e886ca4acac8bd" ns2:_="">
     <xsd:import namespace="a042ee54-f02a-415e-9595-341646dc5167"/>
@@ -54745,6 +54710,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -54755,22 +54726,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19DF177C-8C67-469D-A144-41DE0BEB0C8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="a042ee54-f02a-415e-9595-341646dc5167"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD64B337-4DCE-4E01-973F-6CCC399E27D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54788,6 +54743,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19DF177C-8C67-469D-A144-41DE0BEB0C8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="a042ee54-f02a-415e-9595-341646dc5167"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B7222CD-4E52-4DCB-A6D9-A689C06F8147}">
   <ds:schemaRefs>
